--- a/Excel/Other/Session2_Exercise.xlsx
+++ b/Excel/Other/Session2_Exercise.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05CF59-3F88-4CAF-B4F7-BA4EA8E0E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="1" r:id="rId1"/>
     <sheet name="Practice" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3781,7 +3791,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4299,23 +4309,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="3" max="3" width="150.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
@@ -4330,7 +4340,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4343,7 +4353,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>1</v>
       </c>
@@ -4360,7 +4370,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <v>2</v>
       </c>
@@ -4377,7 +4387,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14">
         <v>3</v>
       </c>
@@ -4394,7 +4404,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="2:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="37" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>4</v>
       </c>
@@ -4411,7 +4421,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>5</v>
       </c>
@@ -4434,29 +4444,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +4504,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -4522,7 +4532,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -4550,7 +4560,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -4578,7 +4588,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4606,7 +4616,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -4634,7 +4644,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -4662,7 +4672,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
@@ -4690,7 +4700,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -4718,7 +4728,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4746,7 +4756,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
@@ -4774,7 +4784,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
@@ -4802,7 +4812,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -4830,7 +4840,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
@@ -4858,7 +4868,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -4886,7 +4896,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
@@ -4914,7 +4924,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
@@ -4942,7 +4952,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
@@ -4970,7 +4980,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
@@ -4998,7 +5008,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
@@ -5026,7 +5036,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
@@ -5054,7 +5064,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
@@ -5082,7 +5092,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
@@ -5110,7 +5120,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
@@ -5138,7 +5148,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
@@ -5166,7 +5176,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
@@ -5194,7 +5204,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -5222,7 +5232,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
@@ -5250,7 +5260,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
@@ -5278,7 +5288,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
@@ -5306,7 +5316,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
@@ -5334,7 +5344,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +5372,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
@@ -5390,7 +5400,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
@@ -5418,7 +5428,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +5456,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>5</v>
       </c>
@@ -5474,7 +5484,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
@@ -5502,7 +5512,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>2</v>
       </c>
@@ -5530,7 +5540,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>2</v>
       </c>
@@ -5558,7 +5568,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>2</v>
       </c>
@@ -5586,7 +5596,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
@@ -5614,7 +5624,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
@@ -5642,7 +5652,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5680,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>2</v>
       </c>
@@ -5698,7 +5708,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
@@ -5726,7 +5736,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
@@ -5754,7 +5764,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
@@ -5782,7 +5792,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
         <v>2</v>
       </c>
@@ -5810,7 +5820,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5838,7 +5848,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5876,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
         <v>5</v>
       </c>
@@ -5894,7 +5904,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>5</v>
       </c>
@@ -5922,7 +5932,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="5" t="s">
         <v>5</v>
       </c>
@@ -5950,7 +5960,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
         <v>5</v>
       </c>
@@ -5978,7 +5988,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="5" t="s">
         <v>5</v>
       </c>
@@ -6006,7 +6016,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="5" t="s">
         <v>2</v>
       </c>
@@ -6034,7 +6044,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6072,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
         <v>2</v>
       </c>
@@ -6090,7 +6100,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +6128,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +6156,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="5" t="s">
         <v>2</v>
       </c>
@@ -6174,7 +6184,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6212,7 @@
       <c r="L64" s="6"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="5" t="s">
         <v>5</v>
       </c>
@@ -6230,7 +6240,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="5" t="s">
         <v>5</v>
       </c>
@@ -6258,7 +6268,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
         <v>2</v>
       </c>
@@ -6286,7 +6296,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
         <v>2</v>
       </c>
@@ -6314,7 +6324,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
         <v>5</v>
       </c>
@@ -6342,7 +6352,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
         <v>5</v>
       </c>
@@ -6370,7 +6380,7 @@
       <c r="L70" s="6"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
         <v>2</v>
       </c>
@@ -6398,7 +6408,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
         <v>5</v>
       </c>
@@ -6426,7 +6436,7 @@
       <c r="L72" s="6"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="5" t="s">
         <v>2</v>
       </c>
@@ -6454,7 +6464,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
         <v>2</v>
       </c>
@@ -6482,7 +6492,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
         <v>5</v>
       </c>
@@ -6510,7 +6520,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="5" t="s">
         <v>2</v>
       </c>
@@ -6538,7 +6548,7 @@
       <c r="L76" s="6"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
         <v>5</v>
       </c>
@@ -6566,7 +6576,7 @@
       <c r="L77" s="6"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
         <v>5</v>
       </c>
@@ -6594,7 +6604,7 @@
       <c r="L78" s="6"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="5" t="s">
         <v>5</v>
       </c>
@@ -6622,7 +6632,7 @@
       <c r="L79" s="6"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
         <v>5</v>
       </c>
@@ -6650,7 +6660,7 @@
       <c r="L80" s="6"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
         <v>5</v>
       </c>
@@ -6678,7 +6688,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="5" t="s">
         <v>2</v>
       </c>
@@ -6706,7 +6716,7 @@
       <c r="L82" s="6"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="5" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6744,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="5" t="s">
         <v>2</v>
       </c>
@@ -6762,7 +6772,7 @@
       <c r="L84" s="6"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="5" t="s">
         <v>5</v>
       </c>
@@ -6790,7 +6800,7 @@
       <c r="L85" s="6"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="5" t="s">
         <v>5</v>
       </c>
@@ -6818,7 +6828,7 @@
       <c r="L86" s="6"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="5" t="s">
         <v>5</v>
       </c>
@@ -6846,7 +6856,7 @@
       <c r="L87" s="6"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="5" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +6884,7 @@
       <c r="L88" s="6"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>2</v>
       </c>
@@ -6902,7 +6912,7 @@
       <c r="L89" s="6"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="5" t="s">
         <v>2</v>
       </c>
@@ -6930,7 +6940,7 @@
       <c r="L90" s="6"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
         <v>2</v>
       </c>
@@ -6958,7 +6968,7 @@
       <c r="L91" s="6"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="5" t="s">
         <v>2</v>
       </c>
@@ -6986,7 +6996,7 @@
       <c r="L92" s="6"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" s="5" t="s">
         <v>2</v>
       </c>
@@ -7014,7 +7024,7 @@
       <c r="L93" s="6"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" s="5" t="s">
         <v>2</v>
       </c>
@@ -7042,7 +7052,7 @@
       <c r="L94" s="6"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95" s="5" t="s">
         <v>5</v>
       </c>
@@ -7070,7 +7080,7 @@
       <c r="L95" s="6"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="5" t="s">
         <v>5</v>
       </c>
@@ -7098,7 +7108,7 @@
       <c r="L96" s="6"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="5" t="s">
         <v>5</v>
       </c>
@@ -7126,7 +7136,7 @@
       <c r="L97" s="6"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="5" t="s">
         <v>2</v>
       </c>
@@ -7154,7 +7164,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7192,7 @@
       <c r="L99" s="6"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="5" t="s">
         <v>5</v>
       </c>
@@ -7210,7 +7220,7 @@
       <c r="L100" s="6"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="5" t="s">
         <v>2</v>
       </c>
@@ -7238,7 +7248,7 @@
       <c r="L101" s="6"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102" s="5" t="s">
         <v>2</v>
       </c>
@@ -7266,7 +7276,7 @@
       <c r="L102" s="6"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B103" s="5" t="s">
         <v>2</v>
       </c>
@@ -7294,7 +7304,7 @@
       <c r="L103" s="6"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B104" s="5" t="s">
         <v>5</v>
       </c>
@@ -7322,7 +7332,7 @@
       <c r="L104" s="6"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="5" t="s">
         <v>5</v>
       </c>
@@ -7350,7 +7360,7 @@
       <c r="L105" s="6"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106" s="5" t="s">
         <v>2</v>
       </c>
@@ -7378,7 +7388,7 @@
       <c r="L106" s="6"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107" s="5" t="s">
         <v>5</v>
       </c>
@@ -7406,7 +7416,7 @@
       <c r="L107" s="6"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108" s="5" t="s">
         <v>5</v>
       </c>
@@ -7434,7 +7444,7 @@
       <c r="L108" s="6"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B109" s="5" t="s">
         <v>2</v>
       </c>
@@ -7462,7 +7472,7 @@
       <c r="L109" s="6"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="5" t="s">
         <v>2</v>
       </c>
@@ -7490,7 +7500,7 @@
       <c r="L110" s="6"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="5" t="s">
         <v>5</v>
       </c>
@@ -7518,7 +7528,7 @@
       <c r="L111" s="6"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="5" t="s">
         <v>2</v>
       </c>
@@ -7546,7 +7556,7 @@
       <c r="L112" s="6"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="5" t="s">
         <v>2</v>
       </c>
@@ -7574,7 +7584,7 @@
       <c r="L113" s="6"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="5" t="s">
         <v>2</v>
       </c>
@@ -7602,7 +7612,7 @@
       <c r="L114" s="6"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="5" t="s">
         <v>5</v>
       </c>
@@ -7630,7 +7640,7 @@
       <c r="L115" s="6"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="5" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +7668,7 @@
       <c r="L116" s="6"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="5" t="s">
         <v>2</v>
       </c>
@@ -7686,7 +7696,7 @@
       <c r="L117" s="6"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="5" t="s">
         <v>2</v>
       </c>
@@ -7714,7 +7724,7 @@
       <c r="L118" s="6"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="5" t="s">
         <v>5</v>
       </c>
@@ -7742,7 +7752,7 @@
       <c r="L119" s="6"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="5" t="s">
         <v>2</v>
       </c>
@@ -7770,7 +7780,7 @@
       <c r="L120" s="6"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="5" t="s">
         <v>2</v>
       </c>
@@ -7798,7 +7808,7 @@
       <c r="L121" s="6"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="5" t="s">
         <v>2</v>
       </c>
@@ -7826,7 +7836,7 @@
       <c r="L122" s="6"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="5" t="s">
         <v>2</v>
       </c>
@@ -7854,7 +7864,7 @@
       <c r="L123" s="6"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="5" t="s">
         <v>2</v>
       </c>
@@ -7882,7 +7892,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="5" t="s">
         <v>5</v>
       </c>
@@ -7910,7 +7920,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="5" t="s">
         <v>2</v>
       </c>
@@ -7938,7 +7948,7 @@
       <c r="L126" s="6"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="5" t="s">
         <v>5</v>
       </c>
@@ -7966,7 +7976,7 @@
       <c r="L127" s="6"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="5" t="s">
         <v>5</v>
       </c>
@@ -7994,7 +8004,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="5" t="s">
         <v>2</v>
       </c>
@@ -8022,7 +8032,7 @@
       <c r="L129" s="6"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B130" s="5" t="s">
         <v>5</v>
       </c>
@@ -8050,7 +8060,7 @@
       <c r="L130" s="6"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B131" s="5" t="s">
         <v>5</v>
       </c>
@@ -8078,7 +8088,7 @@
       <c r="L131" s="6"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B132" s="5" t="s">
         <v>5</v>
       </c>
@@ -8106,7 +8116,7 @@
       <c r="L132" s="6"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B133" s="5" t="s">
         <v>2</v>
       </c>
@@ -8134,7 +8144,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B134" s="5" t="s">
         <v>5</v>
       </c>
@@ -8162,7 +8172,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B135" s="5" t="s">
         <v>5</v>
       </c>
@@ -8190,7 +8200,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B136" s="5" t="s">
         <v>5</v>
       </c>
@@ -8218,7 +8228,7 @@
       <c r="L136" s="6"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B137" s="5" t="s">
         <v>2</v>
       </c>
@@ -8246,7 +8256,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B138" s="5" t="s">
         <v>5</v>
       </c>
@@ -8274,7 +8284,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B139" s="5" t="s">
         <v>5</v>
       </c>
@@ -8302,7 +8312,7 @@
       <c r="L139" s="6"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B140" s="5" t="s">
         <v>5</v>
       </c>
@@ -8330,7 +8340,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B141" s="5" t="s">
         <v>5</v>
       </c>
@@ -8358,7 +8368,7 @@
       <c r="L141" s="6"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B142" s="5" t="s">
         <v>2</v>
       </c>
@@ -8386,7 +8396,7 @@
       <c r="L142" s="6"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B143" s="5" t="s">
         <v>5</v>
       </c>
@@ -8414,7 +8424,7 @@
       <c r="L143" s="6"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B144" s="5" t="s">
         <v>2</v>
       </c>
@@ -8442,7 +8452,7 @@
       <c r="L144" s="6"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B145" s="5" t="s">
         <v>2</v>
       </c>
@@ -8470,7 +8480,7 @@
       <c r="L145" s="6"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B146" s="5" t="s">
         <v>2</v>
       </c>
@@ -8498,7 +8508,7 @@
       <c r="L146" s="6"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B147" s="5" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8536,7 @@
       <c r="L147" s="6"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B148" s="5" t="s">
         <v>5</v>
       </c>
@@ -8554,7 +8564,7 @@
       <c r="L148" s="6"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B149" s="5" t="s">
         <v>2</v>
       </c>
@@ -8582,7 +8592,7 @@
       <c r="L149" s="6"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B150" s="5" t="s">
         <v>5</v>
       </c>
@@ -8610,7 +8620,7 @@
       <c r="L150" s="6"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B151" s="5" t="s">
         <v>5</v>
       </c>
@@ -8638,7 +8648,7 @@
       <c r="L151" s="6"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B152" s="5" t="s">
         <v>2</v>
       </c>
@@ -8666,7 +8676,7 @@
       <c r="L152" s="6"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B153" s="5" t="s">
         <v>5</v>
       </c>
@@ -8694,7 +8704,7 @@
       <c r="L153" s="6"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B154" s="5" t="s">
         <v>5</v>
       </c>
@@ -8722,7 +8732,7 @@
       <c r="L154" s="6"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B155" s="5" t="s">
         <v>5</v>
       </c>
@@ -8750,7 +8760,7 @@
       <c r="L155" s="6"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B156" s="5" t="s">
         <v>2</v>
       </c>
@@ -8778,7 +8788,7 @@
       <c r="L156" s="6"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B157" s="5" t="s">
         <v>5</v>
       </c>
@@ -8806,7 +8816,7 @@
       <c r="L157" s="6"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B158" s="5" t="s">
         <v>5</v>
       </c>
@@ -8834,7 +8844,7 @@
       <c r="L158" s="6"/>
       <c r="M158" s="7"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B159" s="5" t="s">
         <v>2</v>
       </c>
@@ -8862,7 +8872,7 @@
       <c r="L159" s="6"/>
       <c r="M159" s="7"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B160" s="5" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8900,7 @@
       <c r="L160" s="6"/>
       <c r="M160" s="7"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B161" s="5" t="s">
         <v>5</v>
       </c>
@@ -8918,7 +8928,7 @@
       <c r="L161" s="6"/>
       <c r="M161" s="7"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B162" s="5" t="s">
         <v>2</v>
       </c>
@@ -8946,7 +8956,7 @@
       <c r="L162" s="6"/>
       <c r="M162" s="7"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B163" s="5" t="s">
         <v>5</v>
       </c>
@@ -8974,7 +8984,7 @@
       <c r="L163" s="6"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B164" s="5" t="s">
         <v>5</v>
       </c>
@@ -9002,7 +9012,7 @@
       <c r="L164" s="6"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B165" s="5" t="s">
         <v>2</v>
       </c>
@@ -9030,7 +9040,7 @@
       <c r="L165" s="6"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B166" s="5" t="s">
         <v>5</v>
       </c>
@@ -9058,7 +9068,7 @@
       <c r="L166" s="6"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B167" s="5" t="s">
         <v>5</v>
       </c>
@@ -9086,7 +9096,7 @@
       <c r="L167" s="6"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B168" s="5" t="s">
         <v>2</v>
       </c>
@@ -9114,7 +9124,7 @@
       <c r="L168" s="6"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B169" s="5" t="s">
         <v>2</v>
       </c>
@@ -9142,7 +9152,7 @@
       <c r="L169" s="6"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B170" s="5" t="s">
         <v>5</v>
       </c>
@@ -9170,7 +9180,7 @@
       <c r="L170" s="6"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B171" s="5" t="s">
         <v>2</v>
       </c>
@@ -9198,7 +9208,7 @@
       <c r="L171" s="6"/>
       <c r="M171" s="7"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B172" s="5" t="s">
         <v>2</v>
       </c>
@@ -9226,7 +9236,7 @@
       <c r="L172" s="6"/>
       <c r="M172" s="7"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B173" s="5" t="s">
         <v>2</v>
       </c>
@@ -9254,7 +9264,7 @@
       <c r="L173" s="6"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B174" s="5" t="s">
         <v>5</v>
       </c>
@@ -9282,7 +9292,7 @@
       <c r="L174" s="6"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B175" s="5" t="s">
         <v>5</v>
       </c>
@@ -9310,7 +9320,7 @@
       <c r="L175" s="6"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B176" s="5" t="s">
         <v>2</v>
       </c>
@@ -9338,7 +9348,7 @@
       <c r="L176" s="6"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B177" s="5" t="s">
         <v>2</v>
       </c>
@@ -9366,7 +9376,7 @@
       <c r="L177" s="6"/>
       <c r="M177" s="7"/>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B178" s="5" t="s">
         <v>2</v>
       </c>
@@ -9394,7 +9404,7 @@
       <c r="L178" s="6"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B179" s="5" t="s">
         <v>2</v>
       </c>
@@ -9422,7 +9432,7 @@
       <c r="L179" s="6"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B180" s="5" t="s">
         <v>2</v>
       </c>
@@ -9450,7 +9460,7 @@
       <c r="L180" s="6"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B181" s="5" t="s">
         <v>2</v>
       </c>
@@ -9478,7 +9488,7 @@
       <c r="L181" s="6"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B182" s="5" t="s">
         <v>2</v>
       </c>
@@ -9506,7 +9516,7 @@
       <c r="L182" s="6"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B183" s="5" t="s">
         <v>2</v>
       </c>
@@ -9534,7 +9544,7 @@
       <c r="L183" s="6"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B184" s="5" t="s">
         <v>5</v>
       </c>
@@ -9562,7 +9572,7 @@
       <c r="L184" s="6"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B185" s="5" t="s">
         <v>2</v>
       </c>
@@ -9590,7 +9600,7 @@
       <c r="L185" s="6"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B186" s="5" t="s">
         <v>2</v>
       </c>
@@ -9618,7 +9628,7 @@
       <c r="L186" s="6"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B187" s="5" t="s">
         <v>2</v>
       </c>
@@ -9646,7 +9656,7 @@
       <c r="L187" s="6"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B188" s="5" t="s">
         <v>5</v>
       </c>
@@ -9674,7 +9684,7 @@
       <c r="L188" s="6"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B189" s="5" t="s">
         <v>5</v>
       </c>
@@ -9702,7 +9712,7 @@
       <c r="L189" s="6"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B190" s="5" t="s">
         <v>5</v>
       </c>
@@ -9730,7 +9740,7 @@
       <c r="L190" s="6"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B191" s="5" t="s">
         <v>5</v>
       </c>
@@ -9758,7 +9768,7 @@
       <c r="L191" s="6"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B192" s="5" t="s">
         <v>5</v>
       </c>
@@ -9786,7 +9796,7 @@
       <c r="L192" s="6"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B193" s="5" t="s">
         <v>2</v>
       </c>
@@ -9814,7 +9824,7 @@
       <c r="L193" s="6"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B194" s="5" t="s">
         <v>2</v>
       </c>
@@ -9842,7 +9852,7 @@
       <c r="L194" s="6"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B195" s="5" t="s">
         <v>5</v>
       </c>
@@ -9870,7 +9880,7 @@
       <c r="L195" s="6"/>
       <c r="M195" s="7"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B196" s="5" t="s">
         <v>2</v>
       </c>
@@ -9898,7 +9908,7 @@
       <c r="L196" s="6"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B197" s="5" t="s">
         <v>5</v>
       </c>
@@ -9926,7 +9936,7 @@
       <c r="L197" s="6"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B198" s="5" t="s">
         <v>2</v>
       </c>
@@ -9954,7 +9964,7 @@
       <c r="L198" s="6"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B199" s="5" t="s">
         <v>5</v>
       </c>
@@ -9982,7 +9992,7 @@
       <c r="L199" s="6"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B200" s="5" t="s">
         <v>5</v>
       </c>
@@ -10010,7 +10020,7 @@
       <c r="L200" s="6"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B201" s="5" t="s">
         <v>5</v>
       </c>
@@ -10038,7 +10048,7 @@
       <c r="L201" s="6"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B202" s="5" t="s">
         <v>2</v>
       </c>
@@ -10066,7 +10076,7 @@
       <c r="L202" s="6"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B203" s="5" t="s">
         <v>2</v>
       </c>
@@ -10094,7 +10104,7 @@
       <c r="L203" s="6"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B204" s="5" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10132,7 @@
       <c r="L204" s="6"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B205" s="5" t="s">
         <v>2</v>
       </c>
@@ -10150,7 +10160,7 @@
       <c r="L205" s="6"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B206" s="5" t="s">
         <v>5</v>
       </c>
@@ -10178,7 +10188,7 @@
       <c r="L206" s="6"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B207" s="5" t="s">
         <v>2</v>
       </c>
@@ -10206,7 +10216,7 @@
       <c r="L207" s="6"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B208" s="5" t="s">
         <v>5</v>
       </c>
@@ -10234,7 +10244,7 @@
       <c r="L208" s="6"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B209" s="5" t="s">
         <v>5</v>
       </c>
@@ -10262,7 +10272,7 @@
       <c r="L209" s="6"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B210" s="5" t="s">
         <v>5</v>
       </c>
@@ -10290,7 +10300,7 @@
       <c r="L210" s="6"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B211" s="5" t="s">
         <v>5</v>
       </c>
@@ -10318,7 +10328,7 @@
       <c r="L211" s="6"/>
       <c r="M211" s="7"/>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B212" s="5" t="s">
         <v>2</v>
       </c>
@@ -10346,7 +10356,7 @@
       <c r="L212" s="6"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B213" s="5" t="s">
         <v>2</v>
       </c>
@@ -10374,7 +10384,7 @@
       <c r="L213" s="6"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B214" s="5" t="s">
         <v>5</v>
       </c>
@@ -10402,7 +10412,7 @@
       <c r="L214" s="6"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B215" s="5" t="s">
         <v>5</v>
       </c>
@@ -10430,7 +10440,7 @@
       <c r="L215" s="6"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B216" s="5" t="s">
         <v>2</v>
       </c>
@@ -10458,7 +10468,7 @@
       <c r="L216" s="6"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B217" s="5" t="s">
         <v>5</v>
       </c>
@@ -10486,7 +10496,7 @@
       <c r="L217" s="6"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B218" s="5" t="s">
         <v>5</v>
       </c>
@@ -10514,7 +10524,7 @@
       <c r="L218" s="6"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B219" s="5" t="s">
         <v>5</v>
       </c>
@@ -10542,7 +10552,7 @@
       <c r="L219" s="6"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B220" s="5" t="s">
         <v>2</v>
       </c>
@@ -10570,7 +10580,7 @@
       <c r="L220" s="6"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B221" s="5" t="s">
         <v>2</v>
       </c>
@@ -10598,7 +10608,7 @@
       <c r="L221" s="6"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B222" s="5" t="s">
         <v>5</v>
       </c>
@@ -10626,7 +10636,7 @@
       <c r="L222" s="6"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B223" s="5" t="s">
         <v>5</v>
       </c>
@@ -10654,7 +10664,7 @@
       <c r="L223" s="6"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B224" s="5" t="s">
         <v>2</v>
       </c>
@@ -10682,7 +10692,7 @@
       <c r="L224" s="6"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B225" s="5" t="s">
         <v>5</v>
       </c>
@@ -10710,7 +10720,7 @@
       <c r="L225" s="6"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B226" s="5" t="s">
         <v>2</v>
       </c>
@@ -10738,7 +10748,7 @@
       <c r="L226" s="6"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B227" s="5" t="s">
         <v>5</v>
       </c>
@@ -10766,7 +10776,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B228" s="5" t="s">
         <v>2</v>
       </c>
@@ -10794,7 +10804,7 @@
       <c r="L228" s="6"/>
       <c r="M228" s="7"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B229" s="5" t="s">
         <v>2</v>
       </c>
@@ -10822,7 +10832,7 @@
       <c r="L229" s="6"/>
       <c r="M229" s="7"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B230" s="5" t="s">
         <v>2</v>
       </c>
@@ -10850,7 +10860,7 @@
       <c r="L230" s="6"/>
       <c r="M230" s="7"/>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B231" s="5" t="s">
         <v>5</v>
       </c>
@@ -10878,7 +10888,7 @@
       <c r="L231" s="6"/>
       <c r="M231" s="7"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B232" s="5" t="s">
         <v>5</v>
       </c>
@@ -10906,7 +10916,7 @@
       <c r="L232" s="6"/>
       <c r="M232" s="7"/>
     </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B233" s="5" t="s">
         <v>2</v>
       </c>
@@ -10934,7 +10944,7 @@
       <c r="L233" s="6"/>
       <c r="M233" s="7"/>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B234" s="5" t="s">
         <v>5</v>
       </c>
@@ -10962,7 +10972,7 @@
       <c r="L234" s="6"/>
       <c r="M234" s="7"/>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B235" s="5" t="s">
         <v>5</v>
       </c>
@@ -10990,7 +11000,7 @@
       <c r="L235" s="6"/>
       <c r="M235" s="7"/>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B236" s="5" t="s">
         <v>2</v>
       </c>
@@ -11018,7 +11028,7 @@
       <c r="L236" s="6"/>
       <c r="M236" s="7"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B237" s="5" t="s">
         <v>5</v>
       </c>
@@ -11046,7 +11056,7 @@
       <c r="L237" s="6"/>
       <c r="M237" s="7"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B238" s="5" t="s">
         <v>5</v>
       </c>
@@ -11074,7 +11084,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="7"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B239" s="5" t="s">
         <v>5</v>
       </c>
@@ -11102,7 +11112,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="7"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B240" s="5" t="s">
         <v>5</v>
       </c>
@@ -11130,7 +11140,7 @@
       <c r="L240" s="6"/>
       <c r="M240" s="7"/>
     </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B241" s="5" t="s">
         <v>2</v>
       </c>
@@ -11158,7 +11168,7 @@
       <c r="L241" s="6"/>
       <c r="M241" s="7"/>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B242" s="5" t="s">
         <v>5</v>
       </c>
@@ -11186,7 +11196,7 @@
       <c r="L242" s="6"/>
       <c r="M242" s="7"/>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B243" s="5" t="s">
         <v>5</v>
       </c>
@@ -11214,7 +11224,7 @@
       <c r="L243" s="6"/>
       <c r="M243" s="7"/>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B244" s="5" t="s">
         <v>5</v>
       </c>
@@ -11242,7 +11252,7 @@
       <c r="L244" s="6"/>
       <c r="M244" s="7"/>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B245" s="5" t="s">
         <v>2</v>
       </c>
@@ -11270,7 +11280,7 @@
       <c r="L245" s="6"/>
       <c r="M245" s="7"/>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B246" s="5" t="s">
         <v>2</v>
       </c>
@@ -11298,7 +11308,7 @@
       <c r="L246" s="6"/>
       <c r="M246" s="7"/>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B247" s="5" t="s">
         <v>5</v>
       </c>
@@ -11326,7 +11336,7 @@
       <c r="L247" s="6"/>
       <c r="M247" s="7"/>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B248" s="5" t="s">
         <v>5</v>
       </c>
@@ -11354,7 +11364,7 @@
       <c r="L248" s="6"/>
       <c r="M248" s="7"/>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B249" s="5" t="s">
         <v>5</v>
       </c>
@@ -11382,7 +11392,7 @@
       <c r="L249" s="6"/>
       <c r="M249" s="7"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B250" s="5" t="s">
         <v>5</v>
       </c>
@@ -11410,7 +11420,7 @@
       <c r="L250" s="6"/>
       <c r="M250" s="7"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B251" s="5" t="s">
         <v>2</v>
       </c>
@@ -11438,7 +11448,7 @@
       <c r="L251" s="6"/>
       <c r="M251" s="7"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B252" s="5" t="s">
         <v>2</v>
       </c>
@@ -11466,7 +11476,7 @@
       <c r="L252" s="6"/>
       <c r="M252" s="7"/>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B253" s="5" t="s">
         <v>5</v>
       </c>
@@ -11494,7 +11504,7 @@
       <c r="L253" s="6"/>
       <c r="M253" s="7"/>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B254" s="5" t="s">
         <v>5</v>
       </c>
@@ -11522,7 +11532,7 @@
       <c r="L254" s="6"/>
       <c r="M254" s="7"/>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B255" s="5" t="s">
         <v>2</v>
       </c>
@@ -11550,7 +11560,7 @@
       <c r="L255" s="6"/>
       <c r="M255" s="7"/>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B256" s="5" t="s">
         <v>2</v>
       </c>
@@ -11578,7 +11588,7 @@
       <c r="L256" s="6"/>
       <c r="M256" s="7"/>
     </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B257" s="5" t="s">
         <v>5</v>
       </c>
@@ -11606,7 +11616,7 @@
       <c r="L257" s="6"/>
       <c r="M257" s="7"/>
     </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B258" s="5" t="s">
         <v>5</v>
       </c>
@@ -11634,7 +11644,7 @@
       <c r="L258" s="6"/>
       <c r="M258" s="7"/>
     </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B259" s="5" t="s">
         <v>2</v>
       </c>
@@ -11662,7 +11672,7 @@
       <c r="L259" s="6"/>
       <c r="M259" s="7"/>
     </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B260" s="5" t="s">
         <v>2</v>
       </c>
@@ -11690,7 +11700,7 @@
       <c r="L260" s="6"/>
       <c r="M260" s="7"/>
     </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B261" s="5" t="s">
         <v>5</v>
       </c>
@@ -11718,7 +11728,7 @@
       <c r="L261" s="6"/>
       <c r="M261" s="7"/>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B262" s="5" t="s">
         <v>2</v>
       </c>
@@ -11746,7 +11756,7 @@
       <c r="L262" s="6"/>
       <c r="M262" s="7"/>
     </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B263" s="5" t="s">
         <v>2</v>
       </c>
@@ -11774,7 +11784,7 @@
       <c r="L263" s="6"/>
       <c r="M263" s="7"/>
     </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B264" s="5" t="s">
         <v>2</v>
       </c>
@@ -11802,7 +11812,7 @@
       <c r="L264" s="6"/>
       <c r="M264" s="7"/>
     </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B265" s="5" t="s">
         <v>5</v>
       </c>
@@ -11830,7 +11840,7 @@
       <c r="L265" s="6"/>
       <c r="M265" s="7"/>
     </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B266" s="5" t="s">
         <v>2</v>
       </c>
@@ -11858,7 +11868,7 @@
       <c r="L266" s="6"/>
       <c r="M266" s="7"/>
     </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B267" s="5" t="s">
         <v>2</v>
       </c>
@@ -11886,7 +11896,7 @@
       <c r="L267" s="6"/>
       <c r="M267" s="7"/>
     </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B268" s="5" t="s">
         <v>5</v>
       </c>
@@ -11914,7 +11924,7 @@
       <c r="L268" s="6"/>
       <c r="M268" s="7"/>
     </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B269" s="5" t="s">
         <v>5</v>
       </c>
@@ -11942,7 +11952,7 @@
       <c r="L269" s="6"/>
       <c r="M269" s="7"/>
     </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B270" s="5" t="s">
         <v>2</v>
       </c>
@@ -11970,7 +11980,7 @@
       <c r="L270" s="6"/>
       <c r="M270" s="7"/>
     </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B271" s="5" t="s">
         <v>2</v>
       </c>
@@ -11998,7 +12008,7 @@
       <c r="L271" s="6"/>
       <c r="M271" s="7"/>
     </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B272" s="5" t="s">
         <v>2</v>
       </c>
@@ -12026,7 +12036,7 @@
       <c r="L272" s="6"/>
       <c r="M272" s="7"/>
     </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B273" s="5" t="s">
         <v>2</v>
       </c>
@@ -12054,7 +12064,7 @@
       <c r="L273" s="6"/>
       <c r="M273" s="7"/>
     </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B274" s="5" t="s">
         <v>5</v>
       </c>
@@ -12082,7 +12092,7 @@
       <c r="L274" s="6"/>
       <c r="M274" s="7"/>
     </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B275" s="5" t="s">
         <v>5</v>
       </c>
@@ -12110,7 +12120,7 @@
       <c r="L275" s="6"/>
       <c r="M275" s="7"/>
     </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B276" s="5" t="s">
         <v>2</v>
       </c>
@@ -12138,7 +12148,7 @@
       <c r="L276" s="6"/>
       <c r="M276" s="7"/>
     </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B277" s="5" t="s">
         <v>2</v>
       </c>
@@ -12166,7 +12176,7 @@
       <c r="L277" s="6"/>
       <c r="M277" s="7"/>
     </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B278" s="5" t="s">
         <v>5</v>
       </c>
@@ -12194,7 +12204,7 @@
       <c r="L278" s="6"/>
       <c r="M278" s="7"/>
     </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B279" s="5" t="s">
         <v>5</v>
       </c>
@@ -12222,7 +12232,7 @@
       <c r="L279" s="6"/>
       <c r="M279" s="7"/>
     </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B280" s="5" t="s">
         <v>2</v>
       </c>
@@ -12250,7 +12260,7 @@
       <c r="L280" s="6"/>
       <c r="M280" s="7"/>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B281" s="5" t="s">
         <v>2</v>
       </c>
@@ -12278,7 +12288,7 @@
       <c r="L281" s="6"/>
       <c r="M281" s="7"/>
     </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B282" s="5" t="s">
         <v>2</v>
       </c>
@@ -12306,7 +12316,7 @@
       <c r="L282" s="6"/>
       <c r="M282" s="7"/>
     </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B283" s="5" t="s">
         <v>5</v>
       </c>
@@ -12334,7 +12344,7 @@
       <c r="L283" s="6"/>
       <c r="M283" s="7"/>
     </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B284" s="5" t="s">
         <v>5</v>
       </c>
@@ -12362,7 +12372,7 @@
       <c r="L284" s="6"/>
       <c r="M284" s="7"/>
     </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B285" s="5" t="s">
         <v>5</v>
       </c>
@@ -12390,7 +12400,7 @@
       <c r="L285" s="6"/>
       <c r="M285" s="7"/>
     </row>
-    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B286" s="5" t="s">
         <v>2</v>
       </c>
@@ -12418,7 +12428,7 @@
       <c r="L286" s="6"/>
       <c r="M286" s="7"/>
     </row>
-    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B287" s="5" t="s">
         <v>2</v>
       </c>
@@ -12446,7 +12456,7 @@
       <c r="L287" s="6"/>
       <c r="M287" s="7"/>
     </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B288" s="5" t="s">
         <v>2</v>
       </c>
@@ -12474,7 +12484,7 @@
       <c r="L288" s="6"/>
       <c r="M288" s="7"/>
     </row>
-    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B289" s="5" t="s">
         <v>5</v>
       </c>
@@ -12502,7 +12512,7 @@
       <c r="L289" s="6"/>
       <c r="M289" s="7"/>
     </row>
-    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B290" s="5" t="s">
         <v>5</v>
       </c>
@@ -12530,7 +12540,7 @@
       <c r="L290" s="6"/>
       <c r="M290" s="7"/>
     </row>
-    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B291" s="5" t="s">
         <v>2</v>
       </c>
@@ -12558,7 +12568,7 @@
       <c r="L291" s="6"/>
       <c r="M291" s="7"/>
     </row>
-    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B292" s="5" t="s">
         <v>5</v>
       </c>
@@ -12586,7 +12596,7 @@
       <c r="L292" s="6"/>
       <c r="M292" s="7"/>
     </row>
-    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B293" s="5" t="s">
         <v>5</v>
       </c>
@@ -12614,7 +12624,7 @@
       <c r="L293" s="6"/>
       <c r="M293" s="7"/>
     </row>
-    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B294" s="5" t="s">
         <v>5</v>
       </c>
@@ -12642,7 +12652,7 @@
       <c r="L294" s="6"/>
       <c r="M294" s="7"/>
     </row>
-    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B295" s="5" t="s">
         <v>5</v>
       </c>
@@ -12670,7 +12680,7 @@
       <c r="L295" s="6"/>
       <c r="M295" s="7"/>
     </row>
-    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B296" s="5" t="s">
         <v>5</v>
       </c>
@@ -12698,7 +12708,7 @@
       <c r="L296" s="6"/>
       <c r="M296" s="7"/>
     </row>
-    <row r="297" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B297" s="5" t="s">
         <v>2</v>
       </c>
@@ -12726,7 +12736,7 @@
       <c r="L297" s="6"/>
       <c r="M297" s="7"/>
     </row>
-    <row r="298" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B298" s="5" t="s">
         <v>5</v>
       </c>
@@ -12754,7 +12764,7 @@
       <c r="L298" s="6"/>
       <c r="M298" s="7"/>
     </row>
-    <row r="299" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B299" s="5" t="s">
         <v>5</v>
       </c>
@@ -12782,7 +12792,7 @@
       <c r="L299" s="6"/>
       <c r="M299" s="7"/>
     </row>
-    <row r="300" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B300" s="5" t="s">
         <v>5</v>
       </c>
@@ -12810,7 +12820,7 @@
       <c r="L300" s="6"/>
       <c r="M300" s="7"/>
     </row>
-    <row r="301" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B301" s="5" t="s">
         <v>5</v>
       </c>
@@ -12838,7 +12848,7 @@
       <c r="L301" s="6"/>
       <c r="M301" s="7"/>
     </row>
-    <row r="302" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B302" s="5" t="s">
         <v>5</v>
       </c>
@@ -12866,7 +12876,7 @@
       <c r="L302" s="6"/>
       <c r="M302" s="7"/>
     </row>
-    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B303" s="5" t="s">
         <v>5</v>
       </c>
@@ -12894,7 +12904,7 @@
       <c r="L303" s="6"/>
       <c r="M303" s="7"/>
     </row>
-    <row r="304" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B304" s="5" t="s">
         <v>5</v>
       </c>
@@ -12922,7 +12932,7 @@
       <c r="L304" s="6"/>
       <c r="M304" s="7"/>
     </row>
-    <row r="305" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B305" s="5" t="s">
         <v>5</v>
       </c>
@@ -12950,7 +12960,7 @@
       <c r="L305" s="6"/>
       <c r="M305" s="7"/>
     </row>
-    <row r="306" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B306" s="5" t="s">
         <v>2</v>
       </c>
@@ -12978,7 +12988,7 @@
       <c r="L306" s="6"/>
       <c r="M306" s="7"/>
     </row>
-    <row r="307" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B307" s="5" t="s">
         <v>5</v>
       </c>
@@ -13006,7 +13016,7 @@
       <c r="L307" s="6"/>
       <c r="M307" s="7"/>
     </row>
-    <row r="308" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B308" s="5" t="s">
         <v>2</v>
       </c>
@@ -13034,7 +13044,7 @@
       <c r="L308" s="6"/>
       <c r="M308" s="7"/>
     </row>
-    <row r="309" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B309" s="5" t="s">
         <v>5</v>
       </c>
@@ -13062,7 +13072,7 @@
       <c r="L309" s="6"/>
       <c r="M309" s="7"/>
     </row>
-    <row r="310" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B310" s="5" t="s">
         <v>5</v>
       </c>
@@ -13090,7 +13100,7 @@
       <c r="L310" s="6"/>
       <c r="M310" s="7"/>
     </row>
-    <row r="311" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B311" s="5" t="s">
         <v>5</v>
       </c>
@@ -13118,7 +13128,7 @@
       <c r="L311" s="6"/>
       <c r="M311" s="7"/>
     </row>
-    <row r="312" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B312" s="5" t="s">
         <v>2</v>
       </c>
@@ -13146,7 +13156,7 @@
       <c r="L312" s="6"/>
       <c r="M312" s="7"/>
     </row>
-    <row r="313" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B313" s="5" t="s">
         <v>2</v>
       </c>
@@ -13174,7 +13184,7 @@
       <c r="L313" s="6"/>
       <c r="M313" s="7"/>
     </row>
-    <row r="314" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B314" s="5" t="s">
         <v>2</v>
       </c>
@@ -13202,7 +13212,7 @@
       <c r="L314" s="6"/>
       <c r="M314" s="7"/>
     </row>
-    <row r="315" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B315" s="5" t="s">
         <v>5</v>
       </c>
@@ -13230,7 +13240,7 @@
       <c r="L315" s="6"/>
       <c r="M315" s="7"/>
     </row>
-    <row r="316" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B316" s="5" t="s">
         <v>5</v>
       </c>
@@ -13258,7 +13268,7 @@
       <c r="L316" s="6"/>
       <c r="M316" s="7"/>
     </row>
-    <row r="317" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B317" s="5" t="s">
         <v>2</v>
       </c>
@@ -13286,7 +13296,7 @@
       <c r="L317" s="6"/>
       <c r="M317" s="7"/>
     </row>
-    <row r="318" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B318" s="5" t="s">
         <v>2</v>
       </c>
@@ -13314,7 +13324,7 @@
       <c r="L318" s="6"/>
       <c r="M318" s="7"/>
     </row>
-    <row r="319" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B319" s="5" t="s">
         <v>5</v>
       </c>
@@ -13342,7 +13352,7 @@
       <c r="L319" s="6"/>
       <c r="M319" s="7"/>
     </row>
-    <row r="320" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B320" s="5" t="s">
         <v>2</v>
       </c>
@@ -13370,7 +13380,7 @@
       <c r="L320" s="6"/>
       <c r="M320" s="7"/>
     </row>
-    <row r="321" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B321" s="5" t="s">
         <v>5</v>
       </c>
@@ -13398,7 +13408,7 @@
       <c r="L321" s="6"/>
       <c r="M321" s="7"/>
     </row>
-    <row r="322" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B322" s="5" t="s">
         <v>5</v>
       </c>
@@ -13426,7 +13436,7 @@
       <c r="L322" s="6"/>
       <c r="M322" s="7"/>
     </row>
-    <row r="323" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B323" s="5" t="s">
         <v>2</v>
       </c>
@@ -13454,7 +13464,7 @@
       <c r="L323" s="6"/>
       <c r="M323" s="7"/>
     </row>
-    <row r="324" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B324" s="5" t="s">
         <v>2</v>
       </c>
@@ -13482,7 +13492,7 @@
       <c r="L324" s="6"/>
       <c r="M324" s="7"/>
     </row>
-    <row r="325" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B325" s="5" t="s">
         <v>2</v>
       </c>
@@ -13510,7 +13520,7 @@
       <c r="L325" s="6"/>
       <c r="M325" s="7"/>
     </row>
-    <row r="326" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B326" s="5" t="s">
         <v>2</v>
       </c>
@@ -13538,7 +13548,7 @@
       <c r="L326" s="6"/>
       <c r="M326" s="7"/>
     </row>
-    <row r="327" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B327" s="5" t="s">
         <v>2</v>
       </c>
@@ -13566,7 +13576,7 @@
       <c r="L327" s="6"/>
       <c r="M327" s="7"/>
     </row>
-    <row r="328" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B328" s="5" t="s">
         <v>2</v>
       </c>
@@ -13594,7 +13604,7 @@
       <c r="L328" s="6"/>
       <c r="M328" s="7"/>
     </row>
-    <row r="329" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B329" s="5" t="s">
         <v>2</v>
       </c>
@@ -13622,7 +13632,7 @@
       <c r="L329" s="6"/>
       <c r="M329" s="7"/>
     </row>
-    <row r="330" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B330" s="5" t="s">
         <v>5</v>
       </c>
@@ -13650,7 +13660,7 @@
       <c r="L330" s="6"/>
       <c r="M330" s="7"/>
     </row>
-    <row r="331" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B331" s="5" t="s">
         <v>5</v>
       </c>
@@ -13678,7 +13688,7 @@
       <c r="L331" s="6"/>
       <c r="M331" s="7"/>
     </row>
-    <row r="332" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B332" s="5" t="s">
         <v>5</v>
       </c>
@@ -13706,7 +13716,7 @@
       <c r="L332" s="6"/>
       <c r="M332" s="7"/>
     </row>
-    <row r="333" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B333" s="5" t="s">
         <v>2</v>
       </c>
@@ -13734,7 +13744,7 @@
       <c r="L333" s="6"/>
       <c r="M333" s="7"/>
     </row>
-    <row r="334" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B334" s="5" t="s">
         <v>5</v>
       </c>
@@ -13762,7 +13772,7 @@
       <c r="L334" s="6"/>
       <c r="M334" s="7"/>
     </row>
-    <row r="335" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B335" s="5" t="s">
         <v>5</v>
       </c>
@@ -13790,7 +13800,7 @@
       <c r="L335" s="6"/>
       <c r="M335" s="7"/>
     </row>
-    <row r="336" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B336" s="5" t="s">
         <v>5</v>
       </c>
@@ -13818,7 +13828,7 @@
       <c r="L336" s="6"/>
       <c r="M336" s="7"/>
     </row>
-    <row r="337" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B337" s="5" t="s">
         <v>5</v>
       </c>
@@ -13846,7 +13856,7 @@
       <c r="L337" s="6"/>
       <c r="M337" s="7"/>
     </row>
-    <row r="338" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B338" s="5" t="s">
         <v>2</v>
       </c>
@@ -13874,7 +13884,7 @@
       <c r="L338" s="6"/>
       <c r="M338" s="7"/>
     </row>
-    <row r="339" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B339" s="5" t="s">
         <v>2</v>
       </c>
@@ -13902,7 +13912,7 @@
       <c r="L339" s="6"/>
       <c r="M339" s="7"/>
     </row>
-    <row r="340" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B340" s="5" t="s">
         <v>5</v>
       </c>
@@ -13930,7 +13940,7 @@
       <c r="L340" s="6"/>
       <c r="M340" s="7"/>
     </row>
-    <row r="341" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B341" s="5" t="s">
         <v>5</v>
       </c>
@@ -13958,7 +13968,7 @@
       <c r="L341" s="6"/>
       <c r="M341" s="7"/>
     </row>
-    <row r="342" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B342" s="5" t="s">
         <v>2</v>
       </c>
@@ -13986,7 +13996,7 @@
       <c r="L342" s="6"/>
       <c r="M342" s="7"/>
     </row>
-    <row r="343" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B343" s="5" t="s">
         <v>2</v>
       </c>
@@ -14014,7 +14024,7 @@
       <c r="L343" s="6"/>
       <c r="M343" s="7"/>
     </row>
-    <row r="344" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B344" s="5" t="s">
         <v>5</v>
       </c>
@@ -14042,7 +14052,7 @@
       <c r="L344" s="6"/>
       <c r="M344" s="7"/>
     </row>
-    <row r="345" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B345" s="5" t="s">
         <v>2</v>
       </c>
@@ -14070,7 +14080,7 @@
       <c r="L345" s="6"/>
       <c r="M345" s="7"/>
     </row>
-    <row r="346" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B346" s="5" t="s">
         <v>2</v>
       </c>
@@ -14098,7 +14108,7 @@
       <c r="L346" s="6"/>
       <c r="M346" s="7"/>
     </row>
-    <row r="347" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B347" s="5" t="s">
         <v>5</v>
       </c>
@@ -14126,7 +14136,7 @@
       <c r="L347" s="6"/>
       <c r="M347" s="7"/>
     </row>
-    <row r="348" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B348" s="5" t="s">
         <v>5</v>
       </c>
@@ -14154,7 +14164,7 @@
       <c r="L348" s="6"/>
       <c r="M348" s="7"/>
     </row>
-    <row r="349" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B349" s="5" t="s">
         <v>2</v>
       </c>
@@ -14182,7 +14192,7 @@
       <c r="L349" s="6"/>
       <c r="M349" s="7"/>
     </row>
-    <row r="350" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B350" s="5" t="s">
         <v>5</v>
       </c>
@@ -14210,7 +14220,7 @@
       <c r="L350" s="6"/>
       <c r="M350" s="7"/>
     </row>
-    <row r="351" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B351" s="5" t="s">
         <v>2</v>
       </c>
@@ -14238,7 +14248,7 @@
       <c r="L351" s="6"/>
       <c r="M351" s="7"/>
     </row>
-    <row r="352" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B352" s="5" t="s">
         <v>5</v>
       </c>
@@ -14266,7 +14276,7 @@
       <c r="L352" s="6"/>
       <c r="M352" s="7"/>
     </row>
-    <row r="353" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B353" s="5" t="s">
         <v>5</v>
       </c>
@@ -14294,7 +14304,7 @@
       <c r="L353" s="6"/>
       <c r="M353" s="7"/>
     </row>
-    <row r="354" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B354" s="5" t="s">
         <v>2</v>
       </c>
@@ -14322,7 +14332,7 @@
       <c r="L354" s="6"/>
       <c r="M354" s="7"/>
     </row>
-    <row r="355" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B355" s="5" t="s">
         <v>5</v>
       </c>
@@ -14350,7 +14360,7 @@
       <c r="L355" s="6"/>
       <c r="M355" s="7"/>
     </row>
-    <row r="356" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B356" s="5" t="s">
         <v>2</v>
       </c>
@@ -14378,7 +14388,7 @@
       <c r="L356" s="6"/>
       <c r="M356" s="7"/>
     </row>
-    <row r="357" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B357" s="5" t="s">
         <v>2</v>
       </c>
@@ -14406,7 +14416,7 @@
       <c r="L357" s="6"/>
       <c r="M357" s="7"/>
     </row>
-    <row r="358" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B358" s="5" t="s">
         <v>2</v>
       </c>
@@ -14434,7 +14444,7 @@
       <c r="L358" s="6"/>
       <c r="M358" s="7"/>
     </row>
-    <row r="359" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B359" s="5" t="s">
         <v>2</v>
       </c>
@@ -14462,7 +14472,7 @@
       <c r="L359" s="6"/>
       <c r="M359" s="7"/>
     </row>
-    <row r="360" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B360" s="5" t="s">
         <v>5</v>
       </c>
@@ -14490,7 +14500,7 @@
       <c r="L360" s="6"/>
       <c r="M360" s="7"/>
     </row>
-    <row r="361" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B361" s="5" t="s">
         <v>2</v>
       </c>
@@ -14518,7 +14528,7 @@
       <c r="L361" s="6"/>
       <c r="M361" s="7"/>
     </row>
-    <row r="362" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B362" s="5" t="s">
         <v>5</v>
       </c>
@@ -14546,7 +14556,7 @@
       <c r="L362" s="6"/>
       <c r="M362" s="7"/>
     </row>
-    <row r="363" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B363" s="5" t="s">
         <v>2</v>
       </c>
@@ -14574,7 +14584,7 @@
       <c r="L363" s="6"/>
       <c r="M363" s="7"/>
     </row>
-    <row r="364" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B364" s="5" t="s">
         <v>2</v>
       </c>
@@ -14602,7 +14612,7 @@
       <c r="L364" s="6"/>
       <c r="M364" s="7"/>
     </row>
-    <row r="365" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B365" s="5" t="s">
         <v>5</v>
       </c>
@@ -14630,7 +14640,7 @@
       <c r="L365" s="6"/>
       <c r="M365" s="7"/>
     </row>
-    <row r="366" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B366" s="5" t="s">
         <v>2</v>
       </c>
@@ -14658,7 +14668,7 @@
       <c r="L366" s="6"/>
       <c r="M366" s="7"/>
     </row>
-    <row r="367" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B367" s="5" t="s">
         <v>2</v>
       </c>
@@ -14686,7 +14696,7 @@
       <c r="L367" s="6"/>
       <c r="M367" s="7"/>
     </row>
-    <row r="368" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B368" s="5" t="s">
         <v>5</v>
       </c>
@@ -14714,7 +14724,7 @@
       <c r="L368" s="6"/>
       <c r="M368" s="7"/>
     </row>
-    <row r="369" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B369" s="5" t="s">
         <v>5</v>
       </c>
@@ -14742,7 +14752,7 @@
       <c r="L369" s="6"/>
       <c r="M369" s="7"/>
     </row>
-    <row r="370" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B370" s="5" t="s">
         <v>5</v>
       </c>
@@ -14770,7 +14780,7 @@
       <c r="L370" s="6"/>
       <c r="M370" s="7"/>
     </row>
-    <row r="371" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B371" s="5" t="s">
         <v>5</v>
       </c>
@@ -14798,7 +14808,7 @@
       <c r="L371" s="6"/>
       <c r="M371" s="7"/>
     </row>
-    <row r="372" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B372" s="5" t="s">
         <v>2</v>
       </c>
@@ -14826,7 +14836,7 @@
       <c r="L372" s="6"/>
       <c r="M372" s="7"/>
     </row>
-    <row r="373" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B373" s="5" t="s">
         <v>2</v>
       </c>
@@ -14854,7 +14864,7 @@
       <c r="L373" s="6"/>
       <c r="M373" s="7"/>
     </row>
-    <row r="374" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B374" s="5" t="s">
         <v>5</v>
       </c>
@@ -14882,7 +14892,7 @@
       <c r="L374" s="6"/>
       <c r="M374" s="7"/>
     </row>
-    <row r="375" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B375" s="5" t="s">
         <v>2</v>
       </c>
@@ -14910,7 +14920,7 @@
       <c r="L375" s="6"/>
       <c r="M375" s="7"/>
     </row>
-    <row r="376" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B376" s="5" t="s">
         <v>5</v>
       </c>
@@ -14938,7 +14948,7 @@
       <c r="L376" s="6"/>
       <c r="M376" s="7"/>
     </row>
-    <row r="377" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B377" s="5" t="s">
         <v>2</v>
       </c>
@@ -14966,7 +14976,7 @@
       <c r="L377" s="6"/>
       <c r="M377" s="7"/>
     </row>
-    <row r="378" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B378" s="5" t="s">
         <v>2</v>
       </c>
@@ -14994,7 +15004,7 @@
       <c r="L378" s="6"/>
       <c r="M378" s="7"/>
     </row>
-    <row r="379" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B379" s="5" t="s">
         <v>5</v>
       </c>
@@ -15022,7 +15032,7 @@
       <c r="L379" s="6"/>
       <c r="M379" s="7"/>
     </row>
-    <row r="380" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B380" s="5" t="s">
         <v>2</v>
       </c>
@@ -15050,7 +15060,7 @@
       <c r="L380" s="6"/>
       <c r="M380" s="7"/>
     </row>
-    <row r="381" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B381" s="5" t="s">
         <v>2</v>
       </c>
@@ -15078,7 +15088,7 @@
       <c r="L381" s="6"/>
       <c r="M381" s="7"/>
     </row>
-    <row r="382" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B382" s="5" t="s">
         <v>2</v>
       </c>
@@ -15106,7 +15116,7 @@
       <c r="L382" s="6"/>
       <c r="M382" s="7"/>
     </row>
-    <row r="383" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B383" s="5" t="s">
         <v>5</v>
       </c>
@@ -15134,7 +15144,7 @@
       <c r="L383" s="6"/>
       <c r="M383" s="7"/>
     </row>
-    <row r="384" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B384" s="5" t="s">
         <v>2</v>
       </c>
@@ -15162,7 +15172,7 @@
       <c r="L384" s="6"/>
       <c r="M384" s="7"/>
     </row>
-    <row r="385" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B385" s="5" t="s">
         <v>5</v>
       </c>
@@ -15190,7 +15200,7 @@
       <c r="L385" s="6"/>
       <c r="M385" s="7"/>
     </row>
-    <row r="386" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B386" s="5" t="s">
         <v>5</v>
       </c>
@@ -15218,7 +15228,7 @@
       <c r="L386" s="6"/>
       <c r="M386" s="7"/>
     </row>
-    <row r="387" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B387" s="5" t="s">
         <v>2</v>
       </c>
@@ -15246,7 +15256,7 @@
       <c r="L387" s="6"/>
       <c r="M387" s="7"/>
     </row>
-    <row r="388" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B388" s="5" t="s">
         <v>2</v>
       </c>
@@ -15274,7 +15284,7 @@
       <c r="L388" s="6"/>
       <c r="M388" s="7"/>
     </row>
-    <row r="389" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B389" s="5" t="s">
         <v>2</v>
       </c>
@@ -15302,7 +15312,7 @@
       <c r="L389" s="6"/>
       <c r="M389" s="7"/>
     </row>
-    <row r="390" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B390" s="5" t="s">
         <v>2</v>
       </c>
@@ -15330,7 +15340,7 @@
       <c r="L390" s="6"/>
       <c r="M390" s="7"/>
     </row>
-    <row r="391" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B391" s="5" t="s">
         <v>2</v>
       </c>
@@ -15358,7 +15368,7 @@
       <c r="L391" s="6"/>
       <c r="M391" s="7"/>
     </row>
-    <row r="392" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B392" s="5" t="s">
         <v>2</v>
       </c>
@@ -15386,7 +15396,7 @@
       <c r="L392" s="6"/>
       <c r="M392" s="7"/>
     </row>
-    <row r="393" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B393" s="5" t="s">
         <v>5</v>
       </c>
@@ -15414,7 +15424,7 @@
       <c r="L393" s="6"/>
       <c r="M393" s="7"/>
     </row>
-    <row r="394" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B394" s="5" t="s">
         <v>5</v>
       </c>
@@ -15442,7 +15452,7 @@
       <c r="L394" s="6"/>
       <c r="M394" s="7"/>
     </row>
-    <row r="395" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B395" s="5" t="s">
         <v>2</v>
       </c>
@@ -15470,7 +15480,7 @@
       <c r="L395" s="6"/>
       <c r="M395" s="7"/>
     </row>
-    <row r="396" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B396" s="5" t="s">
         <v>5</v>
       </c>
@@ -15498,7 +15508,7 @@
       <c r="L396" s="6"/>
       <c r="M396" s="7"/>
     </row>
-    <row r="397" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B397" s="5" t="s">
         <v>5</v>
       </c>
@@ -15526,7 +15536,7 @@
       <c r="L397" s="6"/>
       <c r="M397" s="7"/>
     </row>
-    <row r="398" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B398" s="5" t="s">
         <v>2</v>
       </c>
@@ -15554,7 +15564,7 @@
       <c r="L398" s="6"/>
       <c r="M398" s="7"/>
     </row>
-    <row r="399" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B399" s="5" t="s">
         <v>5</v>
       </c>
@@ -15582,7 +15592,7 @@
       <c r="L399" s="6"/>
       <c r="M399" s="7"/>
     </row>
-    <row r="400" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B400" s="5" t="s">
         <v>2</v>
       </c>
@@ -15610,7 +15620,7 @@
       <c r="L400" s="6"/>
       <c r="M400" s="7"/>
     </row>
-    <row r="401" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B401" s="5" t="s">
         <v>2</v>
       </c>
@@ -15638,7 +15648,7 @@
       <c r="L401" s="6"/>
       <c r="M401" s="7"/>
     </row>
-    <row r="402" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B402" s="5" t="s">
         <v>5</v>
       </c>
@@ -15666,7 +15676,7 @@
       <c r="L402" s="6"/>
       <c r="M402" s="7"/>
     </row>
-    <row r="403" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B403" s="5" t="s">
         <v>5</v>
       </c>
@@ -15694,7 +15704,7 @@
       <c r="L403" s="6"/>
       <c r="M403" s="7"/>
     </row>
-    <row r="404" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B404" s="5" t="s">
         <v>2</v>
       </c>
@@ -15722,7 +15732,7 @@
       <c r="L404" s="6"/>
       <c r="M404" s="7"/>
     </row>
-    <row r="405" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B405" s="5" t="s">
         <v>5</v>
       </c>
@@ -15750,7 +15760,7 @@
       <c r="L405" s="6"/>
       <c r="M405" s="7"/>
     </row>
-    <row r="406" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B406" s="5" t="s">
         <v>2</v>
       </c>
@@ -15778,7 +15788,7 @@
       <c r="L406" s="6"/>
       <c r="M406" s="7"/>
     </row>
-    <row r="407" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B407" s="5" t="s">
         <v>2</v>
       </c>
@@ -15806,7 +15816,7 @@
       <c r="L407" s="6"/>
       <c r="M407" s="7"/>
     </row>
-    <row r="408" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B408" s="5" t="s">
         <v>2</v>
       </c>
@@ -15834,7 +15844,7 @@
       <c r="L408" s="6"/>
       <c r="M408" s="7"/>
     </row>
-    <row r="409" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B409" s="5" t="s">
         <v>2</v>
       </c>
@@ -15862,7 +15872,7 @@
       <c r="L409" s="6"/>
       <c r="M409" s="7"/>
     </row>
-    <row r="410" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B410" s="5" t="s">
         <v>5</v>
       </c>
@@ -15890,7 +15900,7 @@
       <c r="L410" s="6"/>
       <c r="M410" s="7"/>
     </row>
-    <row r="411" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B411" s="5" t="s">
         <v>2</v>
       </c>
@@ -15918,7 +15928,7 @@
       <c r="L411" s="6"/>
       <c r="M411" s="7"/>
     </row>
-    <row r="412" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B412" s="5" t="s">
         <v>2</v>
       </c>
@@ -15946,7 +15956,7 @@
       <c r="L412" s="6"/>
       <c r="M412" s="7"/>
     </row>
-    <row r="413" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B413" s="5" t="s">
         <v>5</v>
       </c>
@@ -15974,7 +15984,7 @@
       <c r="L413" s="6"/>
       <c r="M413" s="7"/>
     </row>
-    <row r="414" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B414" s="5" t="s">
         <v>2</v>
       </c>
@@ -16002,7 +16012,7 @@
       <c r="L414" s="6"/>
       <c r="M414" s="7"/>
     </row>
-    <row r="415" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B415" s="5" t="s">
         <v>5</v>
       </c>
@@ -16030,7 +16040,7 @@
       <c r="L415" s="6"/>
       <c r="M415" s="7"/>
     </row>
-    <row r="416" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B416" s="5" t="s">
         <v>5</v>
       </c>
@@ -16058,7 +16068,7 @@
       <c r="L416" s="6"/>
       <c r="M416" s="7"/>
     </row>
-    <row r="417" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B417" s="5" t="s">
         <v>5</v>
       </c>
@@ -16086,7 +16096,7 @@
       <c r="L417" s="6"/>
       <c r="M417" s="7"/>
     </row>
-    <row r="418" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B418" s="5" t="s">
         <v>2</v>
       </c>
@@ -16114,7 +16124,7 @@
       <c r="L418" s="6"/>
       <c r="M418" s="7"/>
     </row>
-    <row r="419" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B419" s="5" t="s">
         <v>5</v>
       </c>
@@ -16142,7 +16152,7 @@
       <c r="L419" s="6"/>
       <c r="M419" s="7"/>
     </row>
-    <row r="420" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B420" s="5" t="s">
         <v>5</v>
       </c>
@@ -16170,7 +16180,7 @@
       <c r="L420" s="6"/>
       <c r="M420" s="7"/>
     </row>
-    <row r="421" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B421" s="5" t="s">
         <v>5</v>
       </c>
@@ -16198,7 +16208,7 @@
       <c r="L421" s="6"/>
       <c r="M421" s="7"/>
     </row>
-    <row r="422" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B422" s="5" t="s">
         <v>5</v>
       </c>
@@ -16226,7 +16236,7 @@
       <c r="L422" s="6"/>
       <c r="M422" s="7"/>
     </row>
-    <row r="423" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B423" s="5" t="s">
         <v>5</v>
       </c>
@@ -16254,7 +16264,7 @@
       <c r="L423" s="6"/>
       <c r="M423" s="7"/>
     </row>
-    <row r="424" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B424" s="5" t="s">
         <v>2</v>
       </c>
@@ -16282,7 +16292,7 @@
       <c r="L424" s="6"/>
       <c r="M424" s="7"/>
     </row>
-    <row r="425" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B425" s="5" t="s">
         <v>2</v>
       </c>
@@ -16310,7 +16320,7 @@
       <c r="L425" s="6"/>
       <c r="M425" s="7"/>
     </row>
-    <row r="426" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B426" s="5" t="s">
         <v>2</v>
       </c>
@@ -16338,7 +16348,7 @@
       <c r="L426" s="6"/>
       <c r="M426" s="7"/>
     </row>
-    <row r="427" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B427" s="5" t="s">
         <v>2</v>
       </c>
@@ -16366,7 +16376,7 @@
       <c r="L427" s="6"/>
       <c r="M427" s="7"/>
     </row>
-    <row r="428" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B428" s="5" t="s">
         <v>5</v>
       </c>
@@ -16394,7 +16404,7 @@
       <c r="L428" s="6"/>
       <c r="M428" s="7"/>
     </row>
-    <row r="429" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B429" s="5" t="s">
         <v>2</v>
       </c>
@@ -16422,7 +16432,7 @@
       <c r="L429" s="6"/>
       <c r="M429" s="7"/>
     </row>
-    <row r="430" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B430" s="5" t="s">
         <v>5</v>
       </c>
@@ -16450,7 +16460,7 @@
       <c r="L430" s="6"/>
       <c r="M430" s="7"/>
     </row>
-    <row r="431" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B431" s="5" t="s">
         <v>5</v>
       </c>
@@ -16478,7 +16488,7 @@
       <c r="L431" s="6"/>
       <c r="M431" s="7"/>
     </row>
-    <row r="432" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B432" s="5" t="s">
         <v>5</v>
       </c>
@@ -16506,7 +16516,7 @@
       <c r="L432" s="6"/>
       <c r="M432" s="7"/>
     </row>
-    <row r="433" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B433" s="5" t="s">
         <v>5</v>
       </c>
@@ -16534,7 +16544,7 @@
       <c r="L433" s="6"/>
       <c r="M433" s="7"/>
     </row>
-    <row r="434" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B434" s="5" t="s">
         <v>5</v>
       </c>
@@ -16562,7 +16572,7 @@
       <c r="L434" s="6"/>
       <c r="M434" s="7"/>
     </row>
-    <row r="435" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B435" s="5" t="s">
         <v>2</v>
       </c>
@@ -16590,7 +16600,7 @@
       <c r="L435" s="6"/>
       <c r="M435" s="7"/>
     </row>
-    <row r="436" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B436" s="5" t="s">
         <v>5</v>
       </c>
@@ -16618,7 +16628,7 @@
       <c r="L436" s="6"/>
       <c r="M436" s="7"/>
     </row>
-    <row r="437" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B437" s="5" t="s">
         <v>2</v>
       </c>
@@ -16646,7 +16656,7 @@
       <c r="L437" s="6"/>
       <c r="M437" s="7"/>
     </row>
-    <row r="438" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B438" s="5" t="s">
         <v>5</v>
       </c>
@@ -16674,7 +16684,7 @@
       <c r="L438" s="6"/>
       <c r="M438" s="7"/>
     </row>
-    <row r="439" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B439" s="5" t="s">
         <v>5</v>
       </c>
@@ -16702,7 +16712,7 @@
       <c r="L439" s="6"/>
       <c r="M439" s="7"/>
     </row>
-    <row r="440" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B440" s="5" t="s">
         <v>5</v>
       </c>
@@ -16730,7 +16740,7 @@
       <c r="L440" s="6"/>
       <c r="M440" s="7"/>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B441" s="5" t="s">
         <v>5</v>
       </c>
@@ -16758,7 +16768,7 @@
       <c r="L441" s="6"/>
       <c r="M441" s="7"/>
     </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B442" s="5" t="s">
         <v>5</v>
       </c>
@@ -16786,7 +16796,7 @@
       <c r="L442" s="6"/>
       <c r="M442" s="7"/>
     </row>
-    <row r="443" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B443" s="5" t="s">
         <v>5</v>
       </c>
@@ -16814,7 +16824,7 @@
       <c r="L443" s="6"/>
       <c r="M443" s="7"/>
     </row>
-    <row r="444" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B444" s="5" t="s">
         <v>2</v>
       </c>
@@ -16842,7 +16852,7 @@
       <c r="L444" s="6"/>
       <c r="M444" s="7"/>
     </row>
-    <row r="445" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B445" s="5" t="s">
         <v>2</v>
       </c>
@@ -16870,7 +16880,7 @@
       <c r="L445" s="6"/>
       <c r="M445" s="7"/>
     </row>
-    <row r="446" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B446" s="5" t="s">
         <v>2</v>
       </c>
@@ -16898,7 +16908,7 @@
       <c r="L446" s="6"/>
       <c r="M446" s="7"/>
     </row>
-    <row r="447" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B447" s="5" t="s">
         <v>2</v>
       </c>
@@ -16926,7 +16936,7 @@
       <c r="L447" s="6"/>
       <c r="M447" s="7"/>
     </row>
-    <row r="448" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B448" s="5" t="s">
         <v>5</v>
       </c>
@@ -16954,7 +16964,7 @@
       <c r="L448" s="6"/>
       <c r="M448" s="7"/>
     </row>
-    <row r="449" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B449" s="5" t="s">
         <v>2</v>
       </c>
@@ -16982,7 +16992,7 @@
       <c r="L449" s="6"/>
       <c r="M449" s="7"/>
     </row>
-    <row r="450" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B450" s="5" t="s">
         <v>5</v>
       </c>
@@ -17010,7 +17020,7 @@
       <c r="L450" s="6"/>
       <c r="M450" s="7"/>
     </row>
-    <row r="451" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B451" s="5" t="s">
         <v>5</v>
       </c>
@@ -17038,7 +17048,7 @@
       <c r="L451" s="6"/>
       <c r="M451" s="7"/>
     </row>
-    <row r="452" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B452" s="5" t="s">
         <v>5</v>
       </c>
@@ -17066,7 +17076,7 @@
       <c r="L452" s="6"/>
       <c r="M452" s="7"/>
     </row>
-    <row r="453" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B453" s="5" t="s">
         <v>5</v>
       </c>
@@ -17094,7 +17104,7 @@
       <c r="L453" s="6"/>
       <c r="M453" s="7"/>
     </row>
-    <row r="454" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B454" s="5" t="s">
         <v>2</v>
       </c>
@@ -17122,7 +17132,7 @@
       <c r="L454" s="6"/>
       <c r="M454" s="7"/>
     </row>
-    <row r="455" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B455" s="5" t="s">
         <v>2</v>
       </c>
@@ -17150,7 +17160,7 @@
       <c r="L455" s="6"/>
       <c r="M455" s="7"/>
     </row>
-    <row r="456" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B456" s="5" t="s">
         <v>2</v>
       </c>
@@ -17178,7 +17188,7 @@
       <c r="L456" s="6"/>
       <c r="M456" s="7"/>
     </row>
-    <row r="457" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B457" s="5" t="s">
         <v>5</v>
       </c>
@@ -17206,7 +17216,7 @@
       <c r="L457" s="6"/>
       <c r="M457" s="7"/>
     </row>
-    <row r="458" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B458" s="5" t="s">
         <v>2</v>
       </c>
@@ -17234,7 +17244,7 @@
       <c r="L458" s="6"/>
       <c r="M458" s="7"/>
     </row>
-    <row r="459" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B459" s="5" t="s">
         <v>5</v>
       </c>
@@ -17262,7 +17272,7 @@
       <c r="L459" s="6"/>
       <c r="M459" s="7"/>
     </row>
-    <row r="460" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B460" s="5" t="s">
         <v>2</v>
       </c>
@@ -17290,7 +17300,7 @@
       <c r="L460" s="6"/>
       <c r="M460" s="7"/>
     </row>
-    <row r="461" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B461" s="5" t="s">
         <v>5</v>
       </c>
@@ -17318,7 +17328,7 @@
       <c r="L461" s="6"/>
       <c r="M461" s="7"/>
     </row>
-    <row r="462" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B462" s="5" t="s">
         <v>2</v>
       </c>
@@ -17346,7 +17356,7 @@
       <c r="L462" s="6"/>
       <c r="M462" s="7"/>
     </row>
-    <row r="463" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B463" s="5" t="s">
         <v>5</v>
       </c>
@@ -17374,7 +17384,7 @@
       <c r="L463" s="6"/>
       <c r="M463" s="7"/>
     </row>
-    <row r="464" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B464" s="5" t="s">
         <v>5</v>
       </c>
@@ -17402,7 +17412,7 @@
       <c r="L464" s="6"/>
       <c r="M464" s="7"/>
     </row>
-    <row r="465" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B465" s="5" t="s">
         <v>5</v>
       </c>
@@ -17430,7 +17440,7 @@
       <c r="L465" s="6"/>
       <c r="M465" s="7"/>
     </row>
-    <row r="466" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B466" s="5" t="s">
         <v>2</v>
       </c>
@@ -17458,7 +17468,7 @@
       <c r="L466" s="6"/>
       <c r="M466" s="7"/>
     </row>
-    <row r="467" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B467" s="5" t="s">
         <v>2</v>
       </c>
@@ -17486,7 +17496,7 @@
       <c r="L467" s="6"/>
       <c r="M467" s="7"/>
     </row>
-    <row r="468" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B468" s="5" t="s">
         <v>5</v>
       </c>
@@ -17514,7 +17524,7 @@
       <c r="L468" s="6"/>
       <c r="M468" s="7"/>
     </row>
-    <row r="469" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B469" s="5" t="s">
         <v>2</v>
       </c>
@@ -17542,7 +17552,7 @@
       <c r="L469" s="6"/>
       <c r="M469" s="7"/>
     </row>
-    <row r="470" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B470" s="5" t="s">
         <v>2</v>
       </c>
@@ -17570,7 +17580,7 @@
       <c r="L470" s="6"/>
       <c r="M470" s="7"/>
     </row>
-    <row r="471" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B471" s="5" t="s">
         <v>5</v>
       </c>
@@ -17598,7 +17608,7 @@
       <c r="L471" s="6"/>
       <c r="M471" s="7"/>
     </row>
-    <row r="472" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B472" s="5" t="s">
         <v>2</v>
       </c>
@@ -17626,7 +17636,7 @@
       <c r="L472" s="6"/>
       <c r="M472" s="7"/>
     </row>
-    <row r="473" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B473" s="5" t="s">
         <v>5</v>
       </c>
@@ -17654,7 +17664,7 @@
       <c r="L473" s="6"/>
       <c r="M473" s="7"/>
     </row>
-    <row r="474" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B474" s="5" t="s">
         <v>2</v>
       </c>
@@ -17682,7 +17692,7 @@
       <c r="L474" s="6"/>
       <c r="M474" s="7"/>
     </row>
-    <row r="475" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B475" s="5" t="s">
         <v>2</v>
       </c>
@@ -17710,7 +17720,7 @@
       <c r="L475" s="6"/>
       <c r="M475" s="7"/>
     </row>
-    <row r="476" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B476" s="5" t="s">
         <v>2</v>
       </c>
@@ -17738,7 +17748,7 @@
       <c r="L476" s="6"/>
       <c r="M476" s="7"/>
     </row>
-    <row r="477" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B477" s="5" t="s">
         <v>2</v>
       </c>
@@ -17766,7 +17776,7 @@
       <c r="L477" s="6"/>
       <c r="M477" s="7"/>
     </row>
-    <row r="478" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B478" s="5" t="s">
         <v>2</v>
       </c>
@@ -17794,7 +17804,7 @@
       <c r="L478" s="6"/>
       <c r="M478" s="7"/>
     </row>
-    <row r="479" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B479" s="5" t="s">
         <v>2</v>
       </c>
@@ -17822,7 +17832,7 @@
       <c r="L479" s="6"/>
       <c r="M479" s="7"/>
     </row>
-    <row r="480" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B480" s="5" t="s">
         <v>5</v>
       </c>
@@ -17850,7 +17860,7 @@
       <c r="L480" s="6"/>
       <c r="M480" s="7"/>
     </row>
-    <row r="481" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B481" s="5" t="s">
         <v>5</v>
       </c>
@@ -17878,7 +17888,7 @@
       <c r="L481" s="6"/>
       <c r="M481" s="7"/>
     </row>
-    <row r="482" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B482" s="5" t="s">
         <v>2</v>
       </c>
@@ -17906,7 +17916,7 @@
       <c r="L482" s="6"/>
       <c r="M482" s="7"/>
     </row>
-    <row r="483" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B483" s="5" t="s">
         <v>5</v>
       </c>
@@ -17934,7 +17944,7 @@
       <c r="L483" s="6"/>
       <c r="M483" s="7"/>
     </row>
-    <row r="484" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B484" s="5" t="s">
         <v>5</v>
       </c>
@@ -17962,7 +17972,7 @@
       <c r="L484" s="6"/>
       <c r="M484" s="7"/>
     </row>
-    <row r="485" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B485" s="5" t="s">
         <v>2</v>
       </c>
@@ -17990,7 +18000,7 @@
       <c r="L485" s="6"/>
       <c r="M485" s="7"/>
     </row>
-    <row r="486" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B486" s="5" t="s">
         <v>5</v>
       </c>
@@ -18018,7 +18028,7 @@
       <c r="L486" s="6"/>
       <c r="M486" s="7"/>
     </row>
-    <row r="487" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B487" s="5" t="s">
         <v>5</v>
       </c>
@@ -18046,7 +18056,7 @@
       <c r="L487" s="6"/>
       <c r="M487" s="7"/>
     </row>
-    <row r="488" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B488" s="5" t="s">
         <v>2</v>
       </c>
@@ -18074,7 +18084,7 @@
       <c r="L488" s="6"/>
       <c r="M488" s="7"/>
     </row>
-    <row r="489" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B489" s="5" t="s">
         <v>5</v>
       </c>
@@ -18102,7 +18112,7 @@
       <c r="L489" s="6"/>
       <c r="M489" s="7"/>
     </row>
-    <row r="490" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B490" s="5" t="s">
         <v>5</v>
       </c>
@@ -18130,7 +18140,7 @@
       <c r="L490" s="6"/>
       <c r="M490" s="7"/>
     </row>
-    <row r="491" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B491" s="5" t="s">
         <v>2</v>
       </c>
@@ -18158,7 +18168,7 @@
       <c r="L491" s="6"/>
       <c r="M491" s="7"/>
     </row>
-    <row r="492" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B492" s="5" t="s">
         <v>5</v>
       </c>
@@ -18186,7 +18196,7 @@
       <c r="L492" s="6"/>
       <c r="M492" s="7"/>
     </row>
-    <row r="493" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B493" s="5" t="s">
         <v>5</v>
       </c>
@@ -18214,7 +18224,7 @@
       <c r="L493" s="6"/>
       <c r="M493" s="7"/>
     </row>
-    <row r="494" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B494" s="5" t="s">
         <v>2</v>
       </c>
@@ -18242,7 +18252,7 @@
       <c r="L494" s="6"/>
       <c r="M494" s="7"/>
     </row>
-    <row r="495" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B495" s="5" t="s">
         <v>2</v>
       </c>
@@ -18270,7 +18280,7 @@
       <c r="L495" s="6"/>
       <c r="M495" s="7"/>
     </row>
-    <row r="496" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B496" s="5" t="s">
         <v>2</v>
       </c>
@@ -18298,7 +18308,7 @@
       <c r="L496" s="6"/>
       <c r="M496" s="7"/>
     </row>
-    <row r="497" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B497" s="5" t="s">
         <v>2</v>
       </c>
@@ -18326,7 +18336,7 @@
       <c r="L497" s="6"/>
       <c r="M497" s="7"/>
     </row>
-    <row r="498" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B498" s="5" t="s">
         <v>2</v>
       </c>
@@ -18354,7 +18364,7 @@
       <c r="L498" s="6"/>
       <c r="M498" s="7"/>
     </row>
-    <row r="499" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B499" s="5" t="s">
         <v>5</v>
       </c>
@@ -18382,7 +18392,7 @@
       <c r="L499" s="6"/>
       <c r="M499" s="7"/>
     </row>
-    <row r="500" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B500" s="5" t="s">
         <v>2</v>
       </c>
@@ -18410,7 +18420,7 @@
       <c r="L500" s="6"/>
       <c r="M500" s="7"/>
     </row>
-    <row r="501" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B501" s="5" t="s">
         <v>2</v>
       </c>
@@ -18438,7 +18448,7 @@
       <c r="L501" s="6"/>
       <c r="M501" s="7"/>
     </row>
-    <row r="502" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B502" s="5" t="s">
         <v>2</v>
       </c>
@@ -18466,7 +18476,7 @@
       <c r="L502" s="6"/>
       <c r="M502" s="7"/>
     </row>
-    <row r="503" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B503" s="5" t="s">
         <v>5</v>
       </c>
@@ -18494,7 +18504,7 @@
       <c r="L503" s="6"/>
       <c r="M503" s="7"/>
     </row>
-    <row r="504" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B504" s="5" t="s">
         <v>2</v>
       </c>
@@ -18522,7 +18532,7 @@
       <c r="L504" s="6"/>
       <c r="M504" s="7"/>
     </row>
-    <row r="505" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B505" s="5" t="s">
         <v>2</v>
       </c>
@@ -18550,7 +18560,7 @@
       <c r="L505" s="6"/>
       <c r="M505" s="7"/>
     </row>
-    <row r="506" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B506" s="5" t="s">
         <v>5</v>
       </c>
@@ -18578,7 +18588,7 @@
       <c r="L506" s="6"/>
       <c r="M506" s="7"/>
     </row>
-    <row r="507" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B507" s="5" t="s">
         <v>2</v>
       </c>
@@ -18606,7 +18616,7 @@
       <c r="L507" s="6"/>
       <c r="M507" s="7"/>
     </row>
-    <row r="508" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B508" s="5" t="s">
         <v>2</v>
       </c>
@@ -18634,7 +18644,7 @@
       <c r="L508" s="6"/>
       <c r="M508" s="7"/>
     </row>
-    <row r="509" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B509" s="5" t="s">
         <v>2</v>
       </c>
@@ -18662,7 +18672,7 @@
       <c r="L509" s="6"/>
       <c r="M509" s="7"/>
     </row>
-    <row r="510" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B510" s="5" t="s">
         <v>5</v>
       </c>
@@ -18690,7 +18700,7 @@
       <c r="L510" s="6"/>
       <c r="M510" s="7"/>
     </row>
-    <row r="511" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B511" s="5" t="s">
         <v>5</v>
       </c>
@@ -18718,7 +18728,7 @@
       <c r="L511" s="6"/>
       <c r="M511" s="7"/>
     </row>
-    <row r="512" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B512" s="5" t="s">
         <v>5</v>
       </c>
@@ -18746,7 +18756,7 @@
       <c r="L512" s="6"/>
       <c r="M512" s="7"/>
     </row>
-    <row r="513" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B513" s="5" t="s">
         <v>2</v>
       </c>
@@ -18774,7 +18784,7 @@
       <c r="L513" s="6"/>
       <c r="M513" s="7"/>
     </row>
-    <row r="514" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B514" s="5" t="s">
         <v>5</v>
       </c>
@@ -18802,7 +18812,7 @@
       <c r="L514" s="6"/>
       <c r="M514" s="7"/>
     </row>
-    <row r="515" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B515" s="5" t="s">
         <v>5</v>
       </c>
@@ -18830,7 +18840,7 @@
       <c r="L515" s="6"/>
       <c r="M515" s="7"/>
     </row>
-    <row r="516" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B516" s="5" t="s">
         <v>5</v>
       </c>
@@ -18858,7 +18868,7 @@
       <c r="L516" s="6"/>
       <c r="M516" s="7"/>
     </row>
-    <row r="517" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B517" s="5" t="s">
         <v>2</v>
       </c>
@@ -18886,7 +18896,7 @@
       <c r="L517" s="6"/>
       <c r="M517" s="7"/>
     </row>
-    <row r="518" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B518" s="5" t="s">
         <v>2</v>
       </c>
@@ -18914,7 +18924,7 @@
       <c r="L518" s="6"/>
       <c r="M518" s="7"/>
     </row>
-    <row r="519" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B519" s="5" t="s">
         <v>2</v>
       </c>
@@ -18942,7 +18952,7 @@
       <c r="L519" s="6"/>
       <c r="M519" s="7"/>
     </row>
-    <row r="520" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B520" s="5" t="s">
         <v>2</v>
       </c>
@@ -18970,7 +18980,7 @@
       <c r="L520" s="6"/>
       <c r="M520" s="7"/>
     </row>
-    <row r="521" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B521" s="5" t="s">
         <v>2</v>
       </c>
@@ -18998,7 +19008,7 @@
       <c r="L521" s="6"/>
       <c r="M521" s="7"/>
     </row>
-    <row r="522" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B522" s="5" t="s">
         <v>2</v>
       </c>
@@ -19026,7 +19036,7 @@
       <c r="L522" s="6"/>
       <c r="M522" s="7"/>
     </row>
-    <row r="523" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B523" s="5" t="s">
         <v>2</v>
       </c>
@@ -19054,7 +19064,7 @@
       <c r="L523" s="6"/>
       <c r="M523" s="7"/>
     </row>
-    <row r="524" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B524" s="5" t="s">
         <v>5</v>
       </c>
@@ -19082,7 +19092,7 @@
       <c r="L524" s="6"/>
       <c r="M524" s="7"/>
     </row>
-    <row r="525" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B525" s="5" t="s">
         <v>2</v>
       </c>
@@ -19110,7 +19120,7 @@
       <c r="L525" s="6"/>
       <c r="M525" s="7"/>
     </row>
-    <row r="526" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B526" s="5" t="s">
         <v>5</v>
       </c>
@@ -19138,7 +19148,7 @@
       <c r="L526" s="6"/>
       <c r="M526" s="7"/>
     </row>
-    <row r="527" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B527" s="5" t="s">
         <v>5</v>
       </c>
@@ -19166,7 +19176,7 @@
       <c r="L527" s="6"/>
       <c r="M527" s="7"/>
     </row>
-    <row r="528" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B528" s="5" t="s">
         <v>5</v>
       </c>
@@ -19194,7 +19204,7 @@
       <c r="L528" s="6"/>
       <c r="M528" s="7"/>
     </row>
-    <row r="529" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B529" s="5" t="s">
         <v>5</v>
       </c>
@@ -19222,7 +19232,7 @@
       <c r="L529" s="6"/>
       <c r="M529" s="7"/>
     </row>
-    <row r="530" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B530" s="5" t="s">
         <v>5</v>
       </c>
@@ -19250,7 +19260,7 @@
       <c r="L530" s="6"/>
       <c r="M530" s="7"/>
     </row>
-    <row r="531" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B531" s="5" t="s">
         <v>2</v>
       </c>
@@ -19278,7 +19288,7 @@
       <c r="L531" s="6"/>
       <c r="M531" s="7"/>
     </row>
-    <row r="532" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B532" s="5" t="s">
         <v>2</v>
       </c>
@@ -19306,7 +19316,7 @@
       <c r="L532" s="6"/>
       <c r="M532" s="7"/>
     </row>
-    <row r="533" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B533" s="5" t="s">
         <v>2</v>
       </c>
@@ -19334,7 +19344,7 @@
       <c r="L533" s="6"/>
       <c r="M533" s="7"/>
     </row>
-    <row r="534" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B534" s="5" t="s">
         <v>2</v>
       </c>
@@ -19362,7 +19372,7 @@
       <c r="L534" s="6"/>
       <c r="M534" s="7"/>
     </row>
-    <row r="535" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B535" s="5" t="s">
         <v>2</v>
       </c>
@@ -19390,7 +19400,7 @@
       <c r="L535" s="6"/>
       <c r="M535" s="7"/>
     </row>
-    <row r="536" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B536" s="5" t="s">
         <v>5</v>
       </c>
@@ -19418,7 +19428,7 @@
       <c r="L536" s="6"/>
       <c r="M536" s="7"/>
     </row>
-    <row r="537" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B537" s="5" t="s">
         <v>2</v>
       </c>
@@ -19446,7 +19456,7 @@
       <c r="L537" s="6"/>
       <c r="M537" s="7"/>
     </row>
-    <row r="538" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B538" s="5" t="s">
         <v>5</v>
       </c>
@@ -19474,7 +19484,7 @@
       <c r="L538" s="6"/>
       <c r="M538" s="7"/>
     </row>
-    <row r="539" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B539" s="5" t="s">
         <v>2</v>
       </c>
@@ -19502,7 +19512,7 @@
       <c r="L539" s="6"/>
       <c r="M539" s="7"/>
     </row>
-    <row r="540" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B540" s="5" t="s">
         <v>5</v>
       </c>
@@ -19530,7 +19540,7 @@
       <c r="L540" s="6"/>
       <c r="M540" s="7"/>
     </row>
-    <row r="541" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B541" s="5" t="s">
         <v>2</v>
       </c>
@@ -19558,7 +19568,7 @@
       <c r="L541" s="6"/>
       <c r="M541" s="7"/>
     </row>
-    <row r="542" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B542" s="5" t="s">
         <v>5</v>
       </c>
@@ -19586,7 +19596,7 @@
       <c r="L542" s="6"/>
       <c r="M542" s="7"/>
     </row>
-    <row r="543" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B543" s="5" t="s">
         <v>5</v>
       </c>
@@ -19614,7 +19624,7 @@
       <c r="L543" s="6"/>
       <c r="M543" s="7"/>
     </row>
-    <row r="544" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B544" s="5" t="s">
         <v>5</v>
       </c>
@@ -19642,7 +19652,7 @@
       <c r="L544" s="6"/>
       <c r="M544" s="7"/>
     </row>
-    <row r="545" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B545" s="5" t="s">
         <v>5</v>
       </c>
@@ -19670,7 +19680,7 @@
       <c r="L545" s="6"/>
       <c r="M545" s="7"/>
     </row>
-    <row r="546" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B546" s="5" t="s">
         <v>2</v>
       </c>
@@ -19698,7 +19708,7 @@
       <c r="L546" s="6"/>
       <c r="M546" s="7"/>
     </row>
-    <row r="547" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B547" s="5" t="s">
         <v>2</v>
       </c>
@@ -19726,7 +19736,7 @@
       <c r="L547" s="6"/>
       <c r="M547" s="7"/>
     </row>
-    <row r="548" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B548" s="5" t="s">
         <v>2</v>
       </c>
@@ -19754,7 +19764,7 @@
       <c r="L548" s="6"/>
       <c r="M548" s="7"/>
     </row>
-    <row r="549" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B549" s="5" t="s">
         <v>5</v>
       </c>
@@ -19782,7 +19792,7 @@
       <c r="L549" s="6"/>
       <c r="M549" s="7"/>
     </row>
-    <row r="550" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B550" s="5" t="s">
         <v>2</v>
       </c>
@@ -19810,7 +19820,7 @@
       <c r="L550" s="6"/>
       <c r="M550" s="7"/>
     </row>
-    <row r="551" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B551" s="5" t="s">
         <v>5</v>
       </c>
@@ -19838,7 +19848,7 @@
       <c r="L551" s="6"/>
       <c r="M551" s="7"/>
     </row>
-    <row r="552" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B552" s="5" t="s">
         <v>2</v>
       </c>
@@ -19866,7 +19876,7 @@
       <c r="L552" s="6"/>
       <c r="M552" s="7"/>
     </row>
-    <row r="553" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B553" s="5" t="s">
         <v>5</v>
       </c>
@@ -19894,7 +19904,7 @@
       <c r="L553" s="6"/>
       <c r="M553" s="7"/>
     </row>
-    <row r="554" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B554" s="5" t="s">
         <v>5</v>
       </c>
@@ -19922,7 +19932,7 @@
       <c r="L554" s="6"/>
       <c r="M554" s="7"/>
     </row>
-    <row r="555" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B555" s="5" t="s">
         <v>5</v>
       </c>
@@ -19950,7 +19960,7 @@
       <c r="L555" s="6"/>
       <c r="M555" s="7"/>
     </row>
-    <row r="556" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B556" s="5" t="s">
         <v>2</v>
       </c>
@@ -19978,7 +19988,7 @@
       <c r="L556" s="6"/>
       <c r="M556" s="7"/>
     </row>
-    <row r="557" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B557" s="5" t="s">
         <v>5</v>
       </c>
@@ -20006,7 +20016,7 @@
       <c r="L557" s="6"/>
       <c r="M557" s="7"/>
     </row>
-    <row r="558" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B558" s="5" t="s">
         <v>5</v>
       </c>
@@ -20034,7 +20044,7 @@
       <c r="L558" s="6"/>
       <c r="M558" s="7"/>
     </row>
-    <row r="559" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B559" s="5" t="s">
         <v>2</v>
       </c>
@@ -20062,7 +20072,7 @@
       <c r="L559" s="6"/>
       <c r="M559" s="7"/>
     </row>
-    <row r="560" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B560" s="5" t="s">
         <v>2</v>
       </c>
@@ -20090,7 +20100,7 @@
       <c r="L560" s="6"/>
       <c r="M560" s="7"/>
     </row>
-    <row r="561" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B561" s="5" t="s">
         <v>5</v>
       </c>
@@ -20118,7 +20128,7 @@
       <c r="L561" s="6"/>
       <c r="M561" s="7"/>
     </row>
-    <row r="562" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B562" s="5" t="s">
         <v>2</v>
       </c>
@@ -20146,7 +20156,7 @@
       <c r="L562" s="6"/>
       <c r="M562" s="7"/>
     </row>
-    <row r="563" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B563" s="5" t="s">
         <v>5</v>
       </c>
@@ -20174,7 +20184,7 @@
       <c r="L563" s="6"/>
       <c r="M563" s="7"/>
     </row>
-    <row r="564" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B564" s="5" t="s">
         <v>2</v>
       </c>
@@ -20202,7 +20212,7 @@
       <c r="L564" s="6"/>
       <c r="M564" s="7"/>
     </row>
-    <row r="565" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B565" s="5" t="s">
         <v>2</v>
       </c>
@@ -20230,7 +20240,7 @@
       <c r="L565" s="6"/>
       <c r="M565" s="7"/>
     </row>
-    <row r="566" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B566" s="5" t="s">
         <v>5</v>
       </c>
@@ -20258,7 +20268,7 @@
       <c r="L566" s="6"/>
       <c r="M566" s="7"/>
     </row>
-    <row r="567" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B567" s="5" t="s">
         <v>2</v>
       </c>
@@ -20286,7 +20296,7 @@
       <c r="L567" s="6"/>
       <c r="M567" s="7"/>
     </row>
-    <row r="568" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B568" s="5" t="s">
         <v>5</v>
       </c>
@@ -20314,7 +20324,7 @@
       <c r="L568" s="6"/>
       <c r="M568" s="7"/>
     </row>
-    <row r="569" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B569" s="5" t="s">
         <v>5</v>
       </c>
@@ -20342,7 +20352,7 @@
       <c r="L569" s="6"/>
       <c r="M569" s="7"/>
     </row>
-    <row r="570" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B570" s="5" t="s">
         <v>2</v>
       </c>
@@ -20370,7 +20380,7 @@
       <c r="L570" s="6"/>
       <c r="M570" s="7"/>
     </row>
-    <row r="571" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B571" s="5" t="s">
         <v>2</v>
       </c>
@@ -20398,7 +20408,7 @@
       <c r="L571" s="6"/>
       <c r="M571" s="7"/>
     </row>
-    <row r="572" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B572" s="5" t="s">
         <v>5</v>
       </c>
@@ -20426,7 +20436,7 @@
       <c r="L572" s="6"/>
       <c r="M572" s="7"/>
     </row>
-    <row r="573" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B573" s="5" t="s">
         <v>5</v>
       </c>
@@ -20454,7 +20464,7 @@
       <c r="L573" s="6"/>
       <c r="M573" s="7"/>
     </row>
-    <row r="574" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B574" s="5" t="s">
         <v>5</v>
       </c>
@@ -20482,7 +20492,7 @@
       <c r="L574" s="6"/>
       <c r="M574" s="7"/>
     </row>
-    <row r="575" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B575" s="5" t="s">
         <v>5</v>
       </c>
@@ -20510,7 +20520,7 @@
       <c r="L575" s="6"/>
       <c r="M575" s="7"/>
     </row>
-    <row r="576" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B576" s="5" t="s">
         <v>2</v>
       </c>
@@ -20538,7 +20548,7 @@
       <c r="L576" s="6"/>
       <c r="M576" s="7"/>
     </row>
-    <row r="577" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B577" s="5" t="s">
         <v>2</v>
       </c>
@@ -20566,7 +20576,7 @@
       <c r="L577" s="6"/>
       <c r="M577" s="7"/>
     </row>
-    <row r="578" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B578" s="5" t="s">
         <v>2</v>
       </c>
@@ -20594,7 +20604,7 @@
       <c r="L578" s="6"/>
       <c r="M578" s="7"/>
     </row>
-    <row r="579" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B579" s="5" t="s">
         <v>5</v>
       </c>
@@ -20622,7 +20632,7 @@
       <c r="L579" s="6"/>
       <c r="M579" s="7"/>
     </row>
-    <row r="580" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B580" s="5" t="s">
         <v>5</v>
       </c>
@@ -20650,7 +20660,7 @@
       <c r="L580" s="6"/>
       <c r="M580" s="7"/>
     </row>
-    <row r="581" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B581" s="5" t="s">
         <v>2</v>
       </c>
@@ -20678,7 +20688,7 @@
       <c r="L581" s="6"/>
       <c r="M581" s="7"/>
     </row>
-    <row r="582" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B582" s="5" t="s">
         <v>2</v>
       </c>
@@ -20706,7 +20716,7 @@
       <c r="L582" s="6"/>
       <c r="M582" s="7"/>
     </row>
-    <row r="583" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B583" s="5" t="s">
         <v>2</v>
       </c>
@@ -20734,7 +20744,7 @@
       <c r="L583" s="6"/>
       <c r="M583" s="7"/>
     </row>
-    <row r="584" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B584" s="5" t="s">
         <v>2</v>
       </c>
@@ -20762,7 +20772,7 @@
       <c r="L584" s="6"/>
       <c r="M584" s="7"/>
     </row>
-    <row r="585" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B585" s="5" t="s">
         <v>2</v>
       </c>
@@ -20790,7 +20800,7 @@
       <c r="L585" s="6"/>
       <c r="M585" s="7"/>
     </row>
-    <row r="586" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B586" s="5" t="s">
         <v>2</v>
       </c>
@@ -20818,7 +20828,7 @@
       <c r="L586" s="6"/>
       <c r="M586" s="7"/>
     </row>
-    <row r="587" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B587" s="5" t="s">
         <v>2</v>
       </c>
@@ -20846,7 +20856,7 @@
       <c r="L587" s="6"/>
       <c r="M587" s="7"/>
     </row>
-    <row r="588" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B588" s="5" t="s">
         <v>2</v>
       </c>
@@ -20874,7 +20884,7 @@
       <c r="L588" s="6"/>
       <c r="M588" s="7"/>
     </row>
-    <row r="589" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B589" s="5" t="s">
         <v>2</v>
       </c>
@@ -20902,7 +20912,7 @@
       <c r="L589" s="6"/>
       <c r="M589" s="7"/>
     </row>
-    <row r="590" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B590" s="5" t="s">
         <v>2</v>
       </c>
@@ -20930,7 +20940,7 @@
       <c r="L590" s="6"/>
       <c r="M590" s="7"/>
     </row>
-    <row r="591" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B591" s="5" t="s">
         <v>2</v>
       </c>
@@ -20958,7 +20968,7 @@
       <c r="L591" s="6"/>
       <c r="M591" s="7"/>
     </row>
-    <row r="592" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B592" s="5" t="s">
         <v>2</v>
       </c>
@@ -20986,7 +20996,7 @@
       <c r="L592" s="6"/>
       <c r="M592" s="7"/>
     </row>
-    <row r="593" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B593" s="5" t="s">
         <v>2</v>
       </c>
@@ -21014,7 +21024,7 @@
       <c r="L593" s="6"/>
       <c r="M593" s="7"/>
     </row>
-    <row r="594" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B594" s="5" t="s">
         <v>5</v>
       </c>
@@ -21042,7 +21052,7 @@
       <c r="L594" s="6"/>
       <c r="M594" s="7"/>
     </row>
-    <row r="595" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B595" s="5" t="s">
         <v>5</v>
       </c>
@@ -21070,7 +21080,7 @@
       <c r="L595" s="6"/>
       <c r="M595" s="7"/>
     </row>
-    <row r="596" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B596" s="5" t="s">
         <v>5</v>
       </c>
@@ -21098,7 +21108,7 @@
       <c r="L596" s="6"/>
       <c r="M596" s="7"/>
     </row>
-    <row r="597" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B597" s="5" t="s">
         <v>2</v>
       </c>
@@ -21126,7 +21136,7 @@
       <c r="L597" s="6"/>
       <c r="M597" s="7"/>
     </row>
-    <row r="598" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B598" s="5" t="s">
         <v>2</v>
       </c>
@@ -21154,7 +21164,7 @@
       <c r="L598" s="6"/>
       <c r="M598" s="7"/>
     </row>
-    <row r="599" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B599" s="5" t="s">
         <v>2</v>
       </c>
@@ -21182,7 +21192,7 @@
       <c r="L599" s="6"/>
       <c r="M599" s="7"/>
     </row>
-    <row r="600" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B600" s="5" t="s">
         <v>5</v>
       </c>
@@ -21210,7 +21220,7 @@
       <c r="L600" s="6"/>
       <c r="M600" s="7"/>
     </row>
-    <row r="601" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B601" s="5" t="s">
         <v>5</v>
       </c>
@@ -21238,7 +21248,7 @@
       <c r="L601" s="6"/>
       <c r="M601" s="7"/>
     </row>
-    <row r="602" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B602" s="5" t="s">
         <v>2</v>
       </c>
@@ -21266,7 +21276,7 @@
       <c r="L602" s="6"/>
       <c r="M602" s="7"/>
     </row>
-    <row r="603" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B603" s="5" t="s">
         <v>2</v>
       </c>
@@ -21294,7 +21304,7 @@
       <c r="L603" s="6"/>
       <c r="M603" s="7"/>
     </row>
-    <row r="604" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B604" s="5" t="s">
         <v>2</v>
       </c>
@@ -21322,7 +21332,7 @@
       <c r="L604" s="6"/>
       <c r="M604" s="7"/>
     </row>
-    <row r="605" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B605" s="5" t="s">
         <v>2</v>
       </c>
@@ -21350,7 +21360,7 @@
       <c r="L605" s="6"/>
       <c r="M605" s="7"/>
     </row>
-    <row r="606" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B606" s="5" t="s">
         <v>2</v>
       </c>
@@ -21378,7 +21388,7 @@
       <c r="L606" s="6"/>
       <c r="M606" s="7"/>
     </row>
-    <row r="607" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B607" s="5" t="s">
         <v>5</v>
       </c>
@@ -21406,7 +21416,7 @@
       <c r="L607" s="6"/>
       <c r="M607" s="7"/>
     </row>
-    <row r="608" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B608" s="5" t="s">
         <v>5</v>
       </c>
@@ -21434,7 +21444,7 @@
       <c r="L608" s="6"/>
       <c r="M608" s="7"/>
     </row>
-    <row r="609" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B609" s="5" t="s">
         <v>5</v>
       </c>
@@ -21462,7 +21472,7 @@
       <c r="L609" s="6"/>
       <c r="M609" s="7"/>
     </row>
-    <row r="610" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B610" s="5" t="s">
         <v>2</v>
       </c>
@@ -21490,7 +21500,7 @@
       <c r="L610" s="6"/>
       <c r="M610" s="7"/>
     </row>
-    <row r="611" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B611" s="5" t="s">
         <v>2</v>
       </c>
@@ -21518,7 +21528,7 @@
       <c r="L611" s="6"/>
       <c r="M611" s="7"/>
     </row>
-    <row r="612" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B612" s="5" t="s">
         <v>2</v>
       </c>
@@ -21546,7 +21556,7 @@
       <c r="L612" s="6"/>
       <c r="M612" s="7"/>
     </row>
-    <row r="613" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B613" s="5" t="s">
         <v>2</v>
       </c>
@@ -21574,7 +21584,7 @@
       <c r="L613" s="6"/>
       <c r="M613" s="7"/>
     </row>
-    <row r="614" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B614" s="5" t="s">
         <v>5</v>
       </c>
@@ -21602,7 +21612,7 @@
       <c r="L614" s="6"/>
       <c r="M614" s="7"/>
     </row>
-    <row r="615" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B615" s="5" t="s">
         <v>2</v>
       </c>
@@ -21630,7 +21640,7 @@
       <c r="L615" s="6"/>
       <c r="M615" s="7"/>
     </row>
-    <row r="616" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B616" s="5" t="s">
         <v>5</v>
       </c>
@@ -21658,7 +21668,7 @@
       <c r="L616" s="6"/>
       <c r="M616" s="7"/>
     </row>
-    <row r="617" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B617" s="5" t="s">
         <v>2</v>
       </c>
@@ -21686,7 +21696,7 @@
       <c r="L617" s="6"/>
       <c r="M617" s="7"/>
     </row>
-    <row r="618" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B618" s="5" t="s">
         <v>2</v>
       </c>
@@ -21714,7 +21724,7 @@
       <c r="L618" s="6"/>
       <c r="M618" s="7"/>
     </row>
-    <row r="619" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B619" s="5" t="s">
         <v>2</v>
       </c>
@@ -21742,7 +21752,7 @@
       <c r="L619" s="6"/>
       <c r="M619" s="7"/>
     </row>
-    <row r="620" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B620" s="5" t="s">
         <v>2</v>
       </c>
@@ -21770,7 +21780,7 @@
       <c r="L620" s="6"/>
       <c r="M620" s="7"/>
     </row>
-    <row r="621" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B621" s="5" t="s">
         <v>5</v>
       </c>
@@ -21798,7 +21808,7 @@
       <c r="L621" s="6"/>
       <c r="M621" s="7"/>
     </row>
-    <row r="622" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B622" s="5" t="s">
         <v>5</v>
       </c>
@@ -21826,7 +21836,7 @@
       <c r="L622" s="6"/>
       <c r="M622" s="7"/>
     </row>
-    <row r="623" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B623" s="5" t="s">
         <v>5</v>
       </c>
@@ -21854,7 +21864,7 @@
       <c r="L623" s="6"/>
       <c r="M623" s="7"/>
     </row>
-    <row r="624" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B624" s="5" t="s">
         <v>2</v>
       </c>
@@ -21882,7 +21892,7 @@
       <c r="L624" s="6"/>
       <c r="M624" s="7"/>
     </row>
-    <row r="625" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B625" s="5" t="s">
         <v>5</v>
       </c>
@@ -21910,7 +21920,7 @@
       <c r="L625" s="6"/>
       <c r="M625" s="7"/>
     </row>
-    <row r="626" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B626" s="5" t="s">
         <v>5</v>
       </c>
@@ -21938,7 +21948,7 @@
       <c r="L626" s="6"/>
       <c r="M626" s="7"/>
     </row>
-    <row r="627" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B627" s="5" t="s">
         <v>5</v>
       </c>
@@ -21966,7 +21976,7 @@
       <c r="L627" s="6"/>
       <c r="M627" s="7"/>
     </row>
-    <row r="628" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B628" s="5" t="s">
         <v>2</v>
       </c>
@@ -21994,7 +22004,7 @@
       <c r="L628" s="6"/>
       <c r="M628" s="7"/>
     </row>
-    <row r="629" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B629" s="5" t="s">
         <v>5</v>
       </c>
@@ -22022,7 +22032,7 @@
       <c r="L629" s="6"/>
       <c r="M629" s="7"/>
     </row>
-    <row r="630" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B630" s="5" t="s">
         <v>5</v>
       </c>
@@ -22050,7 +22060,7 @@
       <c r="L630" s="6"/>
       <c r="M630" s="7"/>
     </row>
-    <row r="631" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B631" s="5" t="s">
         <v>5</v>
       </c>
@@ -22078,7 +22088,7 @@
       <c r="L631" s="6"/>
       <c r="M631" s="7"/>
     </row>
-    <row r="632" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B632" s="5" t="s">
         <v>5</v>
       </c>
@@ -22106,7 +22116,7 @@
       <c r="L632" s="6"/>
       <c r="M632" s="7"/>
     </row>
-    <row r="633" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B633" s="5" t="s">
         <v>2</v>
       </c>
@@ -22134,7 +22144,7 @@
       <c r="L633" s="6"/>
       <c r="M633" s="7"/>
     </row>
-    <row r="634" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B634" s="5" t="s">
         <v>5</v>
       </c>
@@ -22162,7 +22172,7 @@
       <c r="L634" s="6"/>
       <c r="M634" s="7"/>
     </row>
-    <row r="635" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B635" s="5" t="s">
         <v>5</v>
       </c>
@@ -22190,7 +22200,7 @@
       <c r="L635" s="6"/>
       <c r="M635" s="7"/>
     </row>
-    <row r="636" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B636" s="5" t="s">
         <v>2</v>
       </c>
@@ -22218,7 +22228,7 @@
       <c r="L636" s="6"/>
       <c r="M636" s="7"/>
     </row>
-    <row r="637" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B637" s="5" t="s">
         <v>2</v>
       </c>
@@ -22246,7 +22256,7 @@
       <c r="L637" s="6"/>
       <c r="M637" s="7"/>
     </row>
-    <row r="638" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B638" s="5" t="s">
         <v>5</v>
       </c>
@@ -22274,7 +22284,7 @@
       <c r="L638" s="6"/>
       <c r="M638" s="7"/>
     </row>
-    <row r="639" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B639" s="5" t="s">
         <v>5</v>
       </c>
@@ -22302,7 +22312,7 @@
       <c r="L639" s="6"/>
       <c r="M639" s="7"/>
     </row>
-    <row r="640" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B640" s="5" t="s">
         <v>2</v>
       </c>
@@ -22330,7 +22340,7 @@
       <c r="L640" s="6"/>
       <c r="M640" s="7"/>
     </row>
-    <row r="641" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B641" s="5" t="s">
         <v>2</v>
       </c>
@@ -22358,7 +22368,7 @@
       <c r="L641" s="6"/>
       <c r="M641" s="7"/>
     </row>
-    <row r="642" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B642" s="5" t="s">
         <v>5</v>
       </c>
@@ -22386,7 +22396,7 @@
       <c r="L642" s="6"/>
       <c r="M642" s="7"/>
     </row>
-    <row r="643" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B643" s="5" t="s">
         <v>2</v>
       </c>
@@ -22414,7 +22424,7 @@
       <c r="L643" s="6"/>
       <c r="M643" s="7"/>
     </row>
-    <row r="644" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B644" s="5" t="s">
         <v>5</v>
       </c>
@@ -22442,7 +22452,7 @@
       <c r="L644" s="6"/>
       <c r="M644" s="7"/>
     </row>
-    <row r="645" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B645" s="5" t="s">
         <v>2</v>
       </c>
@@ -22470,7 +22480,7 @@
       <c r="L645" s="6"/>
       <c r="M645" s="7"/>
     </row>
-    <row r="646" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B646" s="5" t="s">
         <v>2</v>
       </c>
@@ -22498,7 +22508,7 @@
       <c r="L646" s="6"/>
       <c r="M646" s="7"/>
     </row>
-    <row r="647" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B647" s="5" t="s">
         <v>2</v>
       </c>
@@ -22526,7 +22536,7 @@
       <c r="L647" s="6"/>
       <c r="M647" s="7"/>
     </row>
-    <row r="648" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B648" s="5" t="s">
         <v>5</v>
       </c>
@@ -22554,7 +22564,7 @@
       <c r="L648" s="6"/>
       <c r="M648" s="7"/>
     </row>
-    <row r="649" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B649" s="5" t="s">
         <v>2</v>
       </c>
@@ -22582,7 +22592,7 @@
       <c r="L649" s="6"/>
       <c r="M649" s="7"/>
     </row>
-    <row r="650" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B650" s="5" t="s">
         <v>2</v>
       </c>
@@ -22610,7 +22620,7 @@
       <c r="L650" s="6"/>
       <c r="M650" s="7"/>
     </row>
-    <row r="651" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B651" s="5" t="s">
         <v>2</v>
       </c>
@@ -22638,7 +22648,7 @@
       <c r="L651" s="6"/>
       <c r="M651" s="7"/>
     </row>
-    <row r="652" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B652" s="5" t="s">
         <v>2</v>
       </c>
@@ -22666,7 +22676,7 @@
       <c r="L652" s="6"/>
       <c r="M652" s="7"/>
     </row>
-    <row r="653" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B653" s="5" t="s">
         <v>2</v>
       </c>
@@ -22694,7 +22704,7 @@
       <c r="L653" s="6"/>
       <c r="M653" s="7"/>
     </row>
-    <row r="654" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B654" s="5" t="s">
         <v>5</v>
       </c>
@@ -22722,7 +22732,7 @@
       <c r="L654" s="6"/>
       <c r="M654" s="7"/>
     </row>
-    <row r="655" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B655" s="5" t="s">
         <v>2</v>
       </c>
@@ -22750,7 +22760,7 @@
       <c r="L655" s="6"/>
       <c r="M655" s="7"/>
     </row>
-    <row r="656" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B656" s="5" t="s">
         <v>2</v>
       </c>
@@ -22778,7 +22788,7 @@
       <c r="L656" s="6"/>
       <c r="M656" s="7"/>
     </row>
-    <row r="657" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B657" s="5" t="s">
         <v>2</v>
       </c>
@@ -22806,7 +22816,7 @@
       <c r="L657" s="6"/>
       <c r="M657" s="7"/>
     </row>
-    <row r="658" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B658" s="5" t="s">
         <v>2</v>
       </c>
@@ -22834,7 +22844,7 @@
       <c r="L658" s="6"/>
       <c r="M658" s="7"/>
     </row>
-    <row r="659" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B659" s="5" t="s">
         <v>2</v>
       </c>
@@ -22862,7 +22872,7 @@
       <c r="L659" s="6"/>
       <c r="M659" s="7"/>
     </row>
-    <row r="660" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B660" s="5" t="s">
         <v>5</v>
       </c>
@@ -22890,7 +22900,7 @@
       <c r="L660" s="6"/>
       <c r="M660" s="7"/>
     </row>
-    <row r="661" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B661" s="5" t="s">
         <v>5</v>
       </c>
@@ -22918,7 +22928,7 @@
       <c r="L661" s="6"/>
       <c r="M661" s="7"/>
     </row>
-    <row r="662" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B662" s="5" t="s">
         <v>2</v>
       </c>
@@ -22946,7 +22956,7 @@
       <c r="L662" s="6"/>
       <c r="M662" s="7"/>
     </row>
-    <row r="663" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B663" s="5" t="s">
         <v>5</v>
       </c>
@@ -22974,7 +22984,7 @@
       <c r="L663" s="6"/>
       <c r="M663" s="7"/>
     </row>
-    <row r="664" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B664" s="5" t="s">
         <v>5</v>
       </c>
@@ -23002,7 +23012,7 @@
       <c r="L664" s="6"/>
       <c r="M664" s="7"/>
     </row>
-    <row r="665" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B665" s="5" t="s">
         <v>5</v>
       </c>
@@ -23030,7 +23040,7 @@
       <c r="L665" s="6"/>
       <c r="M665" s="7"/>
     </row>
-    <row r="666" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B666" s="5" t="s">
         <v>2</v>
       </c>
@@ -23058,7 +23068,7 @@
       <c r="L666" s="6"/>
       <c r="M666" s="7"/>
     </row>
-    <row r="667" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B667" s="5" t="s">
         <v>2</v>
       </c>
@@ -23086,7 +23096,7 @@
       <c r="L667" s="6"/>
       <c r="M667" s="7"/>
     </row>
-    <row r="668" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B668" s="5" t="s">
         <v>5</v>
       </c>
@@ -23114,7 +23124,7 @@
       <c r="L668" s="6"/>
       <c r="M668" s="7"/>
     </row>
-    <row r="669" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B669" s="5" t="s">
         <v>2</v>
       </c>
@@ -23142,7 +23152,7 @@
       <c r="L669" s="6"/>
       <c r="M669" s="7"/>
     </row>
-    <row r="670" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B670" s="5" t="s">
         <v>2</v>
       </c>
@@ -23170,7 +23180,7 @@
       <c r="L670" s="6"/>
       <c r="M670" s="7"/>
     </row>
-    <row r="671" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B671" s="5" t="s">
         <v>2</v>
       </c>
@@ -23198,7 +23208,7 @@
       <c r="L671" s="6"/>
       <c r="M671" s="7"/>
     </row>
-    <row r="672" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B672" s="5" t="s">
         <v>5</v>
       </c>
@@ -23226,7 +23236,7 @@
       <c r="L672" s="6"/>
       <c r="M672" s="7"/>
     </row>
-    <row r="673" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B673" s="5" t="s">
         <v>5</v>
       </c>
@@ -23254,7 +23264,7 @@
       <c r="L673" s="6"/>
       <c r="M673" s="7"/>
     </row>
-    <row r="674" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B674" s="5" t="s">
         <v>2</v>
       </c>
@@ -23282,7 +23292,7 @@
       <c r="L674" s="6"/>
       <c r="M674" s="7"/>
     </row>
-    <row r="675" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B675" s="5" t="s">
         <v>5</v>
       </c>
@@ -23310,7 +23320,7 @@
       <c r="L675" s="6"/>
       <c r="M675" s="7"/>
     </row>
-    <row r="676" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B676" s="5" t="s">
         <v>2</v>
       </c>
@@ -23338,7 +23348,7 @@
       <c r="L676" s="6"/>
       <c r="M676" s="7"/>
     </row>
-    <row r="677" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B677" s="5" t="s">
         <v>2</v>
       </c>
@@ -23366,7 +23376,7 @@
       <c r="L677" s="6"/>
       <c r="M677" s="7"/>
     </row>
-    <row r="678" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B678" s="5" t="s">
         <v>2</v>
       </c>
@@ -23394,7 +23404,7 @@
       <c r="L678" s="6"/>
       <c r="M678" s="7"/>
     </row>
-    <row r="679" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B679" s="5" t="s">
         <v>2</v>
       </c>
@@ -23422,7 +23432,7 @@
       <c r="L679" s="6"/>
       <c r="M679" s="7"/>
     </row>
-    <row r="680" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B680" s="5" t="s">
         <v>2</v>
       </c>
@@ -23450,7 +23460,7 @@
       <c r="L680" s="6"/>
       <c r="M680" s="7"/>
     </row>
-    <row r="681" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B681" s="5" t="s">
         <v>2</v>
       </c>
@@ -23478,7 +23488,7 @@
       <c r="L681" s="6"/>
       <c r="M681" s="7"/>
     </row>
-    <row r="682" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B682" s="5" t="s">
         <v>5</v>
       </c>
@@ -23506,7 +23516,7 @@
       <c r="L682" s="6"/>
       <c r="M682" s="7"/>
     </row>
-    <row r="683" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B683" s="5" t="s">
         <v>5</v>
       </c>
@@ -23534,7 +23544,7 @@
       <c r="L683" s="6"/>
       <c r="M683" s="7"/>
     </row>
-    <row r="684" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B684" s="5" t="s">
         <v>2</v>
       </c>
@@ -23562,7 +23572,7 @@
       <c r="L684" s="6"/>
       <c r="M684" s="7"/>
     </row>
-    <row r="685" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B685" s="5" t="s">
         <v>5</v>
       </c>
@@ -23590,7 +23600,7 @@
       <c r="L685" s="6"/>
       <c r="M685" s="7"/>
     </row>
-    <row r="686" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B686" s="5" t="s">
         <v>5</v>
       </c>
@@ -23618,7 +23628,7 @@
       <c r="L686" s="6"/>
       <c r="M686" s="7"/>
     </row>
-    <row r="687" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B687" s="5" t="s">
         <v>2</v>
       </c>
@@ -23646,7 +23656,7 @@
       <c r="L687" s="6"/>
       <c r="M687" s="7"/>
     </row>
-    <row r="688" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B688" s="5" t="s">
         <v>5</v>
       </c>
@@ -23674,7 +23684,7 @@
       <c r="L688" s="6"/>
       <c r="M688" s="7"/>
     </row>
-    <row r="689" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B689" s="5" t="s">
         <v>2</v>
       </c>
@@ -23702,7 +23712,7 @@
       <c r="L689" s="6"/>
       <c r="M689" s="7"/>
     </row>
-    <row r="690" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B690" s="5" t="s">
         <v>5</v>
       </c>
@@ -23730,7 +23740,7 @@
       <c r="L690" s="6"/>
       <c r="M690" s="7"/>
     </row>
-    <row r="691" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B691" s="5" t="s">
         <v>5</v>
       </c>
@@ -23758,7 +23768,7 @@
       <c r="L691" s="6"/>
       <c r="M691" s="7"/>
     </row>
-    <row r="692" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B692" s="5" t="s">
         <v>5</v>
       </c>
@@ -23786,7 +23796,7 @@
       <c r="L692" s="6"/>
       <c r="M692" s="7"/>
     </row>
-    <row r="693" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B693" s="5" t="s">
         <v>5</v>
       </c>
@@ -23814,7 +23824,7 @@
       <c r="L693" s="6"/>
       <c r="M693" s="7"/>
     </row>
-    <row r="694" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B694" s="5" t="s">
         <v>2</v>
       </c>
@@ -23842,7 +23852,7 @@
       <c r="L694" s="6"/>
       <c r="M694" s="7"/>
     </row>
-    <row r="695" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B695" s="5" t="s">
         <v>2</v>
       </c>
@@ -23870,7 +23880,7 @@
       <c r="L695" s="6"/>
       <c r="M695" s="7"/>
     </row>
-    <row r="696" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B696" s="5" t="s">
         <v>2</v>
       </c>
@@ -23898,7 +23908,7 @@
       <c r="L696" s="6"/>
       <c r="M696" s="7"/>
     </row>
-    <row r="697" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B697" s="5" t="s">
         <v>2</v>
       </c>
@@ -23926,7 +23936,7 @@
       <c r="L697" s="6"/>
       <c r="M697" s="7"/>
     </row>
-    <row r="698" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B698" s="5" t="s">
         <v>2</v>
       </c>
@@ -23954,7 +23964,7 @@
       <c r="L698" s="6"/>
       <c r="M698" s="7"/>
     </row>
-    <row r="699" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B699" s="5" t="s">
         <v>2</v>
       </c>
@@ -23982,7 +23992,7 @@
       <c r="L699" s="6"/>
       <c r="M699" s="7"/>
     </row>
-    <row r="700" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B700" s="5" t="s">
         <v>2</v>
       </c>
@@ -24010,7 +24020,7 @@
       <c r="L700" s="6"/>
       <c r="M700" s="7"/>
     </row>
-    <row r="701" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B701" s="5" t="s">
         <v>2</v>
       </c>
@@ -24038,7 +24048,7 @@
       <c r="L701" s="6"/>
       <c r="M701" s="7"/>
     </row>
-    <row r="702" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B702" s="5" t="s">
         <v>2</v>
       </c>
@@ -24066,7 +24076,7 @@
       <c r="L702" s="6"/>
       <c r="M702" s="7"/>
     </row>
-    <row r="703" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B703" s="5" t="s">
         <v>5</v>
       </c>
@@ -24094,7 +24104,7 @@
       <c r="L703" s="6"/>
       <c r="M703" s="7"/>
     </row>
-    <row r="704" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B704" s="5" t="s">
         <v>2</v>
       </c>
@@ -24122,7 +24132,7 @@
       <c r="L704" s="6"/>
       <c r="M704" s="7"/>
     </row>
-    <row r="705" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B705" s="5" t="s">
         <v>2</v>
       </c>
@@ -24150,7 +24160,7 @@
       <c r="L705" s="6"/>
       <c r="M705" s="7"/>
     </row>
-    <row r="706" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B706" s="5" t="s">
         <v>5</v>
       </c>
@@ -24178,7 +24188,7 @@
       <c r="L706" s="6"/>
       <c r="M706" s="7"/>
     </row>
-    <row r="707" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B707" s="5" t="s">
         <v>2</v>
       </c>
@@ -24206,7 +24216,7 @@
       <c r="L707" s="6"/>
       <c r="M707" s="7"/>
     </row>
-    <row r="708" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B708" s="5" t="s">
         <v>2</v>
       </c>
@@ -24234,7 +24244,7 @@
       <c r="L708" s="6"/>
       <c r="M708" s="7"/>
     </row>
-    <row r="709" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B709" s="5" t="s">
         <v>5</v>
       </c>
@@ -24262,7 +24272,7 @@
       <c r="L709" s="6"/>
       <c r="M709" s="7"/>
     </row>
-    <row r="710" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B710" s="5" t="s">
         <v>5</v>
       </c>
@@ -24290,7 +24300,7 @@
       <c r="L710" s="6"/>
       <c r="M710" s="7"/>
     </row>
-    <row r="711" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B711" s="5" t="s">
         <v>5</v>
       </c>
@@ -24318,7 +24328,7 @@
       <c r="L711" s="6"/>
       <c r="M711" s="7"/>
     </row>
-    <row r="712" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B712" s="5" t="s">
         <v>5</v>
       </c>
@@ -24346,7 +24356,7 @@
       <c r="L712" s="6"/>
       <c r="M712" s="7"/>
     </row>
-    <row r="713" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B713" s="5" t="s">
         <v>2</v>
       </c>
@@ -24374,7 +24384,7 @@
       <c r="L713" s="6"/>
       <c r="M713" s="7"/>
     </row>
-    <row r="714" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B714" s="5" t="s">
         <v>5</v>
       </c>
@@ -24402,7 +24412,7 @@
       <c r="L714" s="6"/>
       <c r="M714" s="7"/>
     </row>
-    <row r="715" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B715" s="5" t="s">
         <v>2</v>
       </c>
@@ -24430,7 +24440,7 @@
       <c r="L715" s="6"/>
       <c r="M715" s="7"/>
     </row>
-    <row r="716" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B716" s="5" t="s">
         <v>2</v>
       </c>
@@ -24458,7 +24468,7 @@
       <c r="L716" s="6"/>
       <c r="M716" s="7"/>
     </row>
-    <row r="717" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B717" s="5" t="s">
         <v>5</v>
       </c>
@@ -24486,7 +24496,7 @@
       <c r="L717" s="6"/>
       <c r="M717" s="7"/>
     </row>
-    <row r="718" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B718" s="5" t="s">
         <v>2</v>
       </c>
@@ -24514,7 +24524,7 @@
       <c r="L718" s="6"/>
       <c r="M718" s="7"/>
     </row>
-    <row r="719" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B719" s="5" t="s">
         <v>2</v>
       </c>
@@ -24542,7 +24552,7 @@
       <c r="L719" s="6"/>
       <c r="M719" s="7"/>
     </row>
-    <row r="720" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B720" s="5" t="s">
         <v>5</v>
       </c>
@@ -24570,7 +24580,7 @@
       <c r="L720" s="6"/>
       <c r="M720" s="7"/>
     </row>
-    <row r="721" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B721" s="5" t="s">
         <v>2</v>
       </c>
@@ -24598,7 +24608,7 @@
       <c r="L721" s="6"/>
       <c r="M721" s="7"/>
     </row>
-    <row r="722" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B722" s="5" t="s">
         <v>2</v>
       </c>
@@ -24626,7 +24636,7 @@
       <c r="L722" s="6"/>
       <c r="M722" s="7"/>
     </row>
-    <row r="723" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B723" s="5" t="s">
         <v>5</v>
       </c>
@@ -24654,7 +24664,7 @@
       <c r="L723" s="6"/>
       <c r="M723" s="7"/>
     </row>
-    <row r="724" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B724" s="5" t="s">
         <v>2</v>
       </c>
@@ -24682,7 +24692,7 @@
       <c r="L724" s="6"/>
       <c r="M724" s="7"/>
     </row>
-    <row r="725" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B725" s="5" t="s">
         <v>5</v>
       </c>
@@ -24710,7 +24720,7 @@
       <c r="L725" s="6"/>
       <c r="M725" s="7"/>
     </row>
-    <row r="726" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B726" s="5" t="s">
         <v>2</v>
       </c>
@@ -24738,7 +24748,7 @@
       <c r="L726" s="6"/>
       <c r="M726" s="7"/>
     </row>
-    <row r="727" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B727" s="5" t="s">
         <v>5</v>
       </c>
@@ -24766,7 +24776,7 @@
       <c r="L727" s="6"/>
       <c r="M727" s="7"/>
     </row>
-    <row r="728" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B728" s="5" t="s">
         <v>5</v>
       </c>
@@ -24794,7 +24804,7 @@
       <c r="L728" s="6"/>
       <c r="M728" s="7"/>
     </row>
-    <row r="729" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B729" s="5" t="s">
         <v>5</v>
       </c>
@@ -24822,7 +24832,7 @@
       <c r="L729" s="6"/>
       <c r="M729" s="7"/>
     </row>
-    <row r="730" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B730" s="5" t="s">
         <v>2</v>
       </c>
@@ -24850,7 +24860,7 @@
       <c r="L730" s="6"/>
       <c r="M730" s="7"/>
     </row>
-    <row r="731" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B731" s="5" t="s">
         <v>5</v>
       </c>
@@ -24878,7 +24888,7 @@
       <c r="L731" s="6"/>
       <c r="M731" s="7"/>
     </row>
-    <row r="732" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B732" s="5" t="s">
         <v>2</v>
       </c>
@@ -24906,7 +24916,7 @@
       <c r="L732" s="6"/>
       <c r="M732" s="7"/>
     </row>
-    <row r="733" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B733" s="5" t="s">
         <v>5</v>
       </c>
@@ -24934,7 +24944,7 @@
       <c r="L733" s="6"/>
       <c r="M733" s="7"/>
     </row>
-    <row r="734" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B734" s="5" t="s">
         <v>2</v>
       </c>
@@ -24962,7 +24972,7 @@
       <c r="L734" s="6"/>
       <c r="M734" s="7"/>
     </row>
-    <row r="735" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B735" s="5" t="s">
         <v>5</v>
       </c>
@@ -24990,7 +25000,7 @@
       <c r="L735" s="6"/>
       <c r="M735" s="7"/>
     </row>
-    <row r="736" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B736" s="5" t="s">
         <v>2</v>
       </c>
@@ -25018,7 +25028,7 @@
       <c r="L736" s="6"/>
       <c r="M736" s="7"/>
     </row>
-    <row r="737" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B737" s="5" t="s">
         <v>5</v>
       </c>
@@ -25046,7 +25056,7 @@
       <c r="L737" s="6"/>
       <c r="M737" s="7"/>
     </row>
-    <row r="738" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B738" s="5" t="s">
         <v>2</v>
       </c>
@@ -25074,7 +25084,7 @@
       <c r="L738" s="6"/>
       <c r="M738" s="7"/>
     </row>
-    <row r="739" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B739" s="5" t="s">
         <v>5</v>
       </c>
@@ -25102,7 +25112,7 @@
       <c r="L739" s="6"/>
       <c r="M739" s="7"/>
     </row>
-    <row r="740" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B740" s="5" t="s">
         <v>5</v>
       </c>
@@ -25130,7 +25140,7 @@
       <c r="L740" s="6"/>
       <c r="M740" s="7"/>
     </row>
-    <row r="741" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B741" s="5" t="s">
         <v>2</v>
       </c>
@@ -25158,7 +25168,7 @@
       <c r="L741" s="6"/>
       <c r="M741" s="7"/>
     </row>
-    <row r="742" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B742" s="5" t="s">
         <v>5</v>
       </c>
@@ -25186,7 +25196,7 @@
       <c r="L742" s="6"/>
       <c r="M742" s="7"/>
     </row>
-    <row r="743" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B743" s="5" t="s">
         <v>5</v>
       </c>
@@ -25214,7 +25224,7 @@
       <c r="L743" s="6"/>
       <c r="M743" s="7"/>
     </row>
-    <row r="744" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B744" s="5" t="s">
         <v>5</v>
       </c>
@@ -25242,7 +25252,7 @@
       <c r="L744" s="6"/>
       <c r="M744" s="7"/>
     </row>
-    <row r="745" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B745" s="5" t="s">
         <v>2</v>
       </c>
@@ -25270,7 +25280,7 @@
       <c r="L745" s="6"/>
       <c r="M745" s="7"/>
     </row>
-    <row r="746" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B746" s="5" t="s">
         <v>2</v>
       </c>
@@ -25298,7 +25308,7 @@
       <c r="L746" s="6"/>
       <c r="M746" s="7"/>
     </row>
-    <row r="747" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B747" s="5" t="s">
         <v>2</v>
       </c>
@@ -25326,7 +25336,7 @@
       <c r="L747" s="6"/>
       <c r="M747" s="7"/>
     </row>
-    <row r="748" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B748" s="5" t="s">
         <v>5</v>
       </c>
@@ -25354,7 +25364,7 @@
       <c r="L748" s="6"/>
       <c r="M748" s="7"/>
     </row>
-    <row r="749" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B749" s="5" t="s">
         <v>5</v>
       </c>
@@ -25382,7 +25392,7 @@
       <c r="L749" s="6"/>
       <c r="M749" s="7"/>
     </row>
-    <row r="750" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B750" s="5" t="s">
         <v>5</v>
       </c>
@@ -25410,7 +25420,7 @@
       <c r="L750" s="6"/>
       <c r="M750" s="7"/>
     </row>
-    <row r="751" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B751" s="5" t="s">
         <v>5</v>
       </c>
@@ -25438,7 +25448,7 @@
       <c r="L751" s="6"/>
       <c r="M751" s="7"/>
     </row>
-    <row r="752" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B752" s="5" t="s">
         <v>2</v>
       </c>
@@ -25466,7 +25476,7 @@
       <c r="L752" s="6"/>
       <c r="M752" s="7"/>
     </row>
-    <row r="753" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B753" s="5" t="s">
         <v>5</v>
       </c>
@@ -25494,7 +25504,7 @@
       <c r="L753" s="6"/>
       <c r="M753" s="7"/>
     </row>
-    <row r="754" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B754" s="5" t="s">
         <v>5</v>
       </c>
@@ -25522,7 +25532,7 @@
       <c r="L754" s="6"/>
       <c r="M754" s="7"/>
     </row>
-    <row r="755" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B755" s="5" t="s">
         <v>5</v>
       </c>
@@ -25550,7 +25560,7 @@
       <c r="L755" s="6"/>
       <c r="M755" s="7"/>
     </row>
-    <row r="756" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B756" s="5" t="s">
         <v>5</v>
       </c>
@@ -25578,7 +25588,7 @@
       <c r="L756" s="6"/>
       <c r="M756" s="7"/>
     </row>
-    <row r="757" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B757" s="5" t="s">
         <v>2</v>
       </c>
@@ -25606,7 +25616,7 @@
       <c r="L757" s="6"/>
       <c r="M757" s="7"/>
     </row>
-    <row r="758" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B758" s="5" t="s">
         <v>5</v>
       </c>
@@ -25634,7 +25644,7 @@
       <c r="L758" s="6"/>
       <c r="M758" s="7"/>
     </row>
-    <row r="759" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B759" s="5" t="s">
         <v>2</v>
       </c>
@@ -25662,7 +25672,7 @@
       <c r="L759" s="6"/>
       <c r="M759" s="7"/>
     </row>
-    <row r="760" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B760" s="5" t="s">
         <v>5</v>
       </c>
@@ -25690,7 +25700,7 @@
       <c r="L760" s="6"/>
       <c r="M760" s="7"/>
     </row>
-    <row r="761" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B761" s="5" t="s">
         <v>5</v>
       </c>
@@ -25718,7 +25728,7 @@
       <c r="L761" s="6"/>
       <c r="M761" s="7"/>
     </row>
-    <row r="762" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B762" s="5" t="s">
         <v>2</v>
       </c>
@@ -25746,7 +25756,7 @@
       <c r="L762" s="6"/>
       <c r="M762" s="7"/>
     </row>
-    <row r="763" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B763" s="5" t="s">
         <v>5</v>
       </c>
@@ -25774,7 +25784,7 @@
       <c r="L763" s="6"/>
       <c r="M763" s="7"/>
     </row>
-    <row r="764" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B764" s="5" t="s">
         <v>2</v>
       </c>
@@ -25802,7 +25812,7 @@
       <c r="L764" s="6"/>
       <c r="M764" s="7"/>
     </row>
-    <row r="765" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B765" s="5" t="s">
         <v>2</v>
       </c>
@@ -25830,7 +25840,7 @@
       <c r="L765" s="6"/>
       <c r="M765" s="7"/>
     </row>
-    <row r="766" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B766" s="5" t="s">
         <v>5</v>
       </c>
@@ -25858,7 +25868,7 @@
       <c r="L766" s="6"/>
       <c r="M766" s="7"/>
     </row>
-    <row r="767" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B767" s="5" t="s">
         <v>2</v>
       </c>
@@ -25886,7 +25896,7 @@
       <c r="L767" s="6"/>
       <c r="M767" s="7"/>
     </row>
-    <row r="768" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B768" s="5" t="s">
         <v>5</v>
       </c>
@@ -25914,7 +25924,7 @@
       <c r="L768" s="6"/>
       <c r="M768" s="7"/>
     </row>
-    <row r="769" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B769" s="5" t="s">
         <v>2</v>
       </c>
@@ -25942,7 +25952,7 @@
       <c r="L769" s="6"/>
       <c r="M769" s="7"/>
     </row>
-    <row r="770" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B770" s="5" t="s">
         <v>2</v>
       </c>
@@ -25970,7 +25980,7 @@
       <c r="L770" s="6"/>
       <c r="M770" s="7"/>
     </row>
-    <row r="771" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B771" s="5" t="s">
         <v>5</v>
       </c>
@@ -25998,7 +26008,7 @@
       <c r="L771" s="6"/>
       <c r="M771" s="7"/>
     </row>
-    <row r="772" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B772" s="5" t="s">
         <v>2</v>
       </c>
@@ -26026,7 +26036,7 @@
       <c r="L772" s="6"/>
       <c r="M772" s="7"/>
     </row>
-    <row r="773" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B773" s="5" t="s">
         <v>5</v>
       </c>
@@ -26054,7 +26064,7 @@
       <c r="L773" s="6"/>
       <c r="M773" s="7"/>
     </row>
-    <row r="774" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B774" s="5" t="s">
         <v>5</v>
       </c>
@@ -26082,7 +26092,7 @@
       <c r="L774" s="6"/>
       <c r="M774" s="7"/>
     </row>
-    <row r="775" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B775" s="5" t="s">
         <v>5</v>
       </c>
@@ -26110,7 +26120,7 @@
       <c r="L775" s="6"/>
       <c r="M775" s="7"/>
     </row>
-    <row r="776" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B776" s="5" t="s">
         <v>2</v>
       </c>
@@ -26138,7 +26148,7 @@
       <c r="L776" s="6"/>
       <c r="M776" s="7"/>
     </row>
-    <row r="777" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B777" s="5" t="s">
         <v>2</v>
       </c>
@@ -26166,7 +26176,7 @@
       <c r="L777" s="6"/>
       <c r="M777" s="7"/>
     </row>
-    <row r="778" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B778" s="5" t="s">
         <v>5</v>
       </c>
@@ -26194,7 +26204,7 @@
       <c r="L778" s="6"/>
       <c r="M778" s="7"/>
     </row>
-    <row r="779" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B779" s="5" t="s">
         <v>2</v>
       </c>
@@ -26222,7 +26232,7 @@
       <c r="L779" s="6"/>
       <c r="M779" s="7"/>
     </row>
-    <row r="780" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B780" s="5" t="s">
         <v>2</v>
       </c>
@@ -26250,7 +26260,7 @@
       <c r="L780" s="6"/>
       <c r="M780" s="7"/>
     </row>
-    <row r="781" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B781" s="5" t="s">
         <v>2</v>
       </c>
@@ -26278,7 +26288,7 @@
       <c r="L781" s="6"/>
       <c r="M781" s="7"/>
     </row>
-    <row r="782" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B782" s="5" t="s">
         <v>2</v>
       </c>
@@ -26306,7 +26316,7 @@
       <c r="L782" s="6"/>
       <c r="M782" s="7"/>
     </row>
-    <row r="783" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B783" s="5" t="s">
         <v>5</v>
       </c>
@@ -26334,7 +26344,7 @@
       <c r="L783" s="6"/>
       <c r="M783" s="7"/>
     </row>
-    <row r="784" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B784" s="5" t="s">
         <v>2</v>
       </c>
@@ -26362,7 +26372,7 @@
       <c r="L784" s="6"/>
       <c r="M784" s="7"/>
     </row>
-    <row r="785" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B785" s="5" t="s">
         <v>2</v>
       </c>
@@ -26390,7 +26400,7 @@
       <c r="L785" s="6"/>
       <c r="M785" s="7"/>
     </row>
-    <row r="786" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B786" s="5" t="s">
         <v>2</v>
       </c>
@@ -26418,7 +26428,7 @@
       <c r="L786" s="6"/>
       <c r="M786" s="7"/>
     </row>
-    <row r="787" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B787" s="5" t="s">
         <v>2</v>
       </c>
@@ -26446,7 +26456,7 @@
       <c r="L787" s="6"/>
       <c r="M787" s="7"/>
     </row>
-    <row r="788" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B788" s="5" t="s">
         <v>5</v>
       </c>
@@ -26474,7 +26484,7 @@
       <c r="L788" s="6"/>
       <c r="M788" s="7"/>
     </row>
-    <row r="789" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B789" s="5" t="s">
         <v>2</v>
       </c>
@@ -26502,7 +26512,7 @@
       <c r="L789" s="6"/>
       <c r="M789" s="7"/>
     </row>
-    <row r="790" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B790" s="5" t="s">
         <v>2</v>
       </c>
@@ -26530,7 +26540,7 @@
       <c r="L790" s="6"/>
       <c r="M790" s="7"/>
     </row>
-    <row r="791" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B791" s="5" t="s">
         <v>2</v>
       </c>
@@ -26558,7 +26568,7 @@
       <c r="L791" s="6"/>
       <c r="M791" s="7"/>
     </row>
-    <row r="792" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B792" s="5" t="s">
         <v>5</v>
       </c>
@@ -26586,7 +26596,7 @@
       <c r="L792" s="6"/>
       <c r="M792" s="7"/>
     </row>
-    <row r="793" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B793" s="5" t="s">
         <v>2</v>
       </c>
@@ -26614,7 +26624,7 @@
       <c r="L793" s="6"/>
       <c r="M793" s="7"/>
     </row>
-    <row r="794" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B794" s="5" t="s">
         <v>2</v>
       </c>
@@ -26642,7 +26652,7 @@
       <c r="L794" s="6"/>
       <c r="M794" s="7"/>
     </row>
-    <row r="795" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B795" s="5" t="s">
         <v>2</v>
       </c>
@@ -26670,7 +26680,7 @@
       <c r="L795" s="6"/>
       <c r="M795" s="7"/>
     </row>
-    <row r="796" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B796" s="5" t="s">
         <v>5</v>
       </c>
@@ -26698,7 +26708,7 @@
       <c r="L796" s="6"/>
       <c r="M796" s="7"/>
     </row>
-    <row r="797" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B797" s="5" t="s">
         <v>5</v>
       </c>
@@ -26726,7 +26736,7 @@
       <c r="L797" s="6"/>
       <c r="M797" s="7"/>
     </row>
-    <row r="798" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B798" s="5" t="s">
         <v>2</v>
       </c>
@@ -26754,7 +26764,7 @@
       <c r="L798" s="6"/>
       <c r="M798" s="7"/>
     </row>
-    <row r="799" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B799" s="5" t="s">
         <v>2</v>
       </c>
@@ -26782,7 +26792,7 @@
       <c r="L799" s="6"/>
       <c r="M799" s="7"/>
     </row>
-    <row r="800" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B800" s="5" t="s">
         <v>5</v>
       </c>
@@ -26810,7 +26820,7 @@
       <c r="L800" s="6"/>
       <c r="M800" s="7"/>
     </row>
-    <row r="801" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B801" s="5" t="s">
         <v>2</v>
       </c>
@@ -26838,7 +26848,7 @@
       <c r="L801" s="6"/>
       <c r="M801" s="7"/>
     </row>
-    <row r="802" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B802" s="5" t="s">
         <v>5</v>
       </c>
@@ -26866,7 +26876,7 @@
       <c r="L802" s="6"/>
       <c r="M802" s="7"/>
     </row>
-    <row r="803" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B803" s="5" t="s">
         <v>2</v>
       </c>
@@ -26894,7 +26904,7 @@
       <c r="L803" s="6"/>
       <c r="M803" s="7"/>
     </row>
-    <row r="804" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B804" s="5" t="s">
         <v>5</v>
       </c>
@@ -26922,7 +26932,7 @@
       <c r="L804" s="6"/>
       <c r="M804" s="7"/>
     </row>
-    <row r="805" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B805" s="5" t="s">
         <v>5</v>
       </c>
@@ -26950,7 +26960,7 @@
       <c r="L805" s="6"/>
       <c r="M805" s="7"/>
     </row>
-    <row r="806" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B806" s="5" t="s">
         <v>2</v>
       </c>
@@ -26978,7 +26988,7 @@
       <c r="L806" s="6"/>
       <c r="M806" s="7"/>
     </row>
-    <row r="807" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B807" s="5" t="s">
         <v>2</v>
       </c>
@@ -27006,7 +27016,7 @@
       <c r="L807" s="6"/>
       <c r="M807" s="7"/>
     </row>
-    <row r="808" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B808" s="5" t="s">
         <v>2</v>
       </c>
@@ -27034,7 +27044,7 @@
       <c r="L808" s="6"/>
       <c r="M808" s="7"/>
     </row>
-    <row r="809" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B809" s="5" t="s">
         <v>5</v>
       </c>
@@ -27062,7 +27072,7 @@
       <c r="L809" s="6"/>
       <c r="M809" s="7"/>
     </row>
-    <row r="810" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B810" s="5" t="s">
         <v>2</v>
       </c>
@@ -27090,7 +27100,7 @@
       <c r="L810" s="6"/>
       <c r="M810" s="7"/>
     </row>
-    <row r="811" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B811" s="5" t="s">
         <v>2</v>
       </c>
@@ -27118,7 +27128,7 @@
       <c r="L811" s="6"/>
       <c r="M811" s="7"/>
     </row>
-    <row r="812" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B812" s="5" t="s">
         <v>5</v>
       </c>
@@ -27146,7 +27156,7 @@
       <c r="L812" s="6"/>
       <c r="M812" s="7"/>
     </row>
-    <row r="813" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B813" s="5" t="s">
         <v>5</v>
       </c>
@@ -27174,7 +27184,7 @@
       <c r="L813" s="6"/>
       <c r="M813" s="7"/>
     </row>
-    <row r="814" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B814" s="5" t="s">
         <v>5</v>
       </c>
@@ -27202,7 +27212,7 @@
       <c r="L814" s="6"/>
       <c r="M814" s="7"/>
     </row>
-    <row r="815" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B815" s="5" t="s">
         <v>5</v>
       </c>
@@ -27230,7 +27240,7 @@
       <c r="L815" s="6"/>
       <c r="M815" s="7"/>
     </row>
-    <row r="816" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B816" s="5" t="s">
         <v>2</v>
       </c>
@@ -27258,7 +27268,7 @@
       <c r="L816" s="6"/>
       <c r="M816" s="7"/>
     </row>
-    <row r="817" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B817" s="5" t="s">
         <v>5</v>
       </c>
@@ -27286,7 +27296,7 @@
       <c r="L817" s="6"/>
       <c r="M817" s="7"/>
     </row>
-    <row r="818" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B818" s="5" t="s">
         <v>2</v>
       </c>
@@ -27314,7 +27324,7 @@
       <c r="L818" s="6"/>
       <c r="M818" s="7"/>
     </row>
-    <row r="819" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B819" s="5" t="s">
         <v>5</v>
       </c>
@@ -27342,7 +27352,7 @@
       <c r="L819" s="6"/>
       <c r="M819" s="7"/>
     </row>
-    <row r="820" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B820" s="5" t="s">
         <v>2</v>
       </c>
@@ -27370,7 +27380,7 @@
       <c r="L820" s="6"/>
       <c r="M820" s="7"/>
     </row>
-    <row r="821" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B821" s="5" t="s">
         <v>5</v>
       </c>
@@ -27398,7 +27408,7 @@
       <c r="L821" s="6"/>
       <c r="M821" s="7"/>
     </row>
-    <row r="822" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B822" s="5" t="s">
         <v>2</v>
       </c>
@@ -27426,7 +27436,7 @@
       <c r="L822" s="6"/>
       <c r="M822" s="7"/>
     </row>
-    <row r="823" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B823" s="5" t="s">
         <v>2</v>
       </c>
@@ -27454,7 +27464,7 @@
       <c r="L823" s="6"/>
       <c r="M823" s="7"/>
     </row>
-    <row r="824" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B824" s="5" t="s">
         <v>2</v>
       </c>
@@ -27482,7 +27492,7 @@
       <c r="L824" s="6"/>
       <c r="M824" s="7"/>
     </row>
-    <row r="825" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B825" s="5" t="s">
         <v>2</v>
       </c>
@@ -27510,7 +27520,7 @@
       <c r="L825" s="6"/>
       <c r="M825" s="7"/>
     </row>
-    <row r="826" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B826" s="5" t="s">
         <v>5</v>
       </c>
@@ -27538,7 +27548,7 @@
       <c r="L826" s="6"/>
       <c r="M826" s="7"/>
     </row>
-    <row r="827" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B827" s="5" t="s">
         <v>2</v>
       </c>
@@ -27566,7 +27576,7 @@
       <c r="L827" s="6"/>
       <c r="M827" s="7"/>
     </row>
-    <row r="828" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B828" s="5" t="s">
         <v>2</v>
       </c>
@@ -27594,7 +27604,7 @@
       <c r="L828" s="6"/>
       <c r="M828" s="7"/>
     </row>
-    <row r="829" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B829" s="5" t="s">
         <v>5</v>
       </c>
@@ -27622,7 +27632,7 @@
       <c r="L829" s="6"/>
       <c r="M829" s="7"/>
     </row>
-    <row r="830" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B830" s="5" t="s">
         <v>2</v>
       </c>
@@ -27650,7 +27660,7 @@
       <c r="L830" s="6"/>
       <c r="M830" s="7"/>
     </row>
-    <row r="831" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B831" s="5" t="s">
         <v>2</v>
       </c>
@@ -27678,7 +27688,7 @@
       <c r="L831" s="6"/>
       <c r="M831" s="7"/>
     </row>
-    <row r="832" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B832" s="5" t="s">
         <v>2</v>
       </c>
@@ -27706,7 +27716,7 @@
       <c r="L832" s="6"/>
       <c r="M832" s="7"/>
     </row>
-    <row r="833" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B833" s="5" t="s">
         <v>5</v>
       </c>
@@ -27734,7 +27744,7 @@
       <c r="L833" s="6"/>
       <c r="M833" s="7"/>
     </row>
-    <row r="834" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B834" s="5" t="s">
         <v>2</v>
       </c>
@@ -27762,7 +27772,7 @@
       <c r="L834" s="6"/>
       <c r="M834" s="7"/>
     </row>
-    <row r="835" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B835" s="5" t="s">
         <v>2</v>
       </c>
@@ -27790,7 +27800,7 @@
       <c r="L835" s="6"/>
       <c r="M835" s="7"/>
     </row>
-    <row r="836" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B836" s="5" t="s">
         <v>5</v>
       </c>
@@ -27818,7 +27828,7 @@
       <c r="L836" s="6"/>
       <c r="M836" s="7"/>
     </row>
-    <row r="837" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B837" s="5" t="s">
         <v>2</v>
       </c>
@@ -27846,7 +27856,7 @@
       <c r="L837" s="6"/>
       <c r="M837" s="7"/>
     </row>
-    <row r="838" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B838" s="5" t="s">
         <v>5</v>
       </c>
@@ -27874,7 +27884,7 @@
       <c r="L838" s="6"/>
       <c r="M838" s="7"/>
     </row>
-    <row r="839" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B839" s="5" t="s">
         <v>2</v>
       </c>
@@ -27902,7 +27912,7 @@
       <c r="L839" s="6"/>
       <c r="M839" s="7"/>
     </row>
-    <row r="840" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B840" s="5" t="s">
         <v>5</v>
       </c>
@@ -27930,7 +27940,7 @@
       <c r="L840" s="6"/>
       <c r="M840" s="7"/>
     </row>
-    <row r="841" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B841" s="5" t="s">
         <v>2</v>
       </c>
@@ -27958,7 +27968,7 @@
       <c r="L841" s="6"/>
       <c r="M841" s="7"/>
     </row>
-    <row r="842" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B842" s="5" t="s">
         <v>5</v>
       </c>
@@ -27986,7 +27996,7 @@
       <c r="L842" s="6"/>
       <c r="M842" s="7"/>
     </row>
-    <row r="843" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B843" s="5" t="s">
         <v>2</v>
       </c>
@@ -28014,7 +28024,7 @@
       <c r="L843" s="6"/>
       <c r="M843" s="7"/>
     </row>
-    <row r="844" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B844" s="5" t="s">
         <v>2</v>
       </c>
@@ -28042,7 +28052,7 @@
       <c r="L844" s="6"/>
       <c r="M844" s="7"/>
     </row>
-    <row r="845" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B845" s="5" t="s">
         <v>5</v>
       </c>
@@ -28070,7 +28080,7 @@
       <c r="L845" s="6"/>
       <c r="M845" s="7"/>
     </row>
-    <row r="846" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B846" s="5" t="s">
         <v>2</v>
       </c>
@@ -28098,7 +28108,7 @@
       <c r="L846" s="6"/>
       <c r="M846" s="7"/>
     </row>
-    <row r="847" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B847" s="5" t="s">
         <v>5</v>
       </c>
@@ -28126,7 +28136,7 @@
       <c r="L847" s="6"/>
       <c r="M847" s="7"/>
     </row>
-    <row r="848" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B848" s="5" t="s">
         <v>2</v>
       </c>
@@ -28154,7 +28164,7 @@
       <c r="L848" s="6"/>
       <c r="M848" s="7"/>
     </row>
-    <row r="849" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B849" s="5" t="s">
         <v>5</v>
       </c>
@@ -28182,7 +28192,7 @@
       <c r="L849" s="6"/>
       <c r="M849" s="7"/>
     </row>
-    <row r="850" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B850" s="5" t="s">
         <v>5</v>
       </c>
@@ -28210,7 +28220,7 @@
       <c r="L850" s="6"/>
       <c r="M850" s="7"/>
     </row>
-    <row r="851" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B851" s="5" t="s">
         <v>5</v>
       </c>
@@ -28238,7 +28248,7 @@
       <c r="L851" s="6"/>
       <c r="M851" s="7"/>
     </row>
-    <row r="852" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B852" s="5" t="s">
         <v>2</v>
       </c>
@@ -28266,7 +28276,7 @@
       <c r="L852" s="6"/>
       <c r="M852" s="7"/>
     </row>
-    <row r="853" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B853" s="5" t="s">
         <v>5</v>
       </c>
@@ -28294,7 +28304,7 @@
       <c r="L853" s="6"/>
       <c r="M853" s="7"/>
     </row>
-    <row r="854" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B854" s="5" t="s">
         <v>5</v>
       </c>
@@ -28322,7 +28332,7 @@
       <c r="L854" s="6"/>
       <c r="M854" s="7"/>
     </row>
-    <row r="855" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B855" s="5" t="s">
         <v>2</v>
       </c>
@@ -28350,7 +28360,7 @@
       <c r="L855" s="6"/>
       <c r="M855" s="7"/>
     </row>
-    <row r="856" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B856" s="5" t="s">
         <v>2</v>
       </c>
@@ -28378,7 +28388,7 @@
       <c r="L856" s="6"/>
       <c r="M856" s="7"/>
     </row>
-    <row r="857" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B857" s="5" t="s">
         <v>5</v>
       </c>
@@ -28406,7 +28416,7 @@
       <c r="L857" s="6"/>
       <c r="M857" s="7"/>
     </row>
-    <row r="858" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B858" s="5" t="s">
         <v>5</v>
       </c>
@@ -28434,7 +28444,7 @@
       <c r="L858" s="6"/>
       <c r="M858" s="7"/>
     </row>
-    <row r="859" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B859" s="5" t="s">
         <v>2</v>
       </c>
@@ -28462,7 +28472,7 @@
       <c r="L859" s="6"/>
       <c r="M859" s="7"/>
     </row>
-    <row r="860" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B860" s="5" t="s">
         <v>5</v>
       </c>
@@ -28490,7 +28500,7 @@
       <c r="L860" s="6"/>
       <c r="M860" s="7"/>
     </row>
-    <row r="861" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B861" s="5" t="s">
         <v>2</v>
       </c>
@@ -28518,7 +28528,7 @@
       <c r="L861" s="6"/>
       <c r="M861" s="7"/>
     </row>
-    <row r="862" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B862" s="5" t="s">
         <v>5</v>
       </c>
@@ -28546,7 +28556,7 @@
       <c r="L862" s="6"/>
       <c r="M862" s="7"/>
     </row>
-    <row r="863" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B863" s="5" t="s">
         <v>5</v>
       </c>
@@ -28574,7 +28584,7 @@
       <c r="L863" s="6"/>
       <c r="M863" s="7"/>
     </row>
-    <row r="864" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B864" s="5" t="s">
         <v>2</v>
       </c>
@@ -28602,7 +28612,7 @@
       <c r="L864" s="6"/>
       <c r="M864" s="7"/>
     </row>
-    <row r="865" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B865" s="5" t="s">
         <v>2</v>
       </c>
@@ -28630,7 +28640,7 @@
       <c r="L865" s="6"/>
       <c r="M865" s="7"/>
     </row>
-    <row r="866" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B866" s="5" t="s">
         <v>5</v>
       </c>
@@ -28658,7 +28668,7 @@
       <c r="L866" s="6"/>
       <c r="M866" s="7"/>
     </row>
-    <row r="867" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B867" s="5" t="s">
         <v>2</v>
       </c>
@@ -28686,7 +28696,7 @@
       <c r="L867" s="6"/>
       <c r="M867" s="7"/>
     </row>
-    <row r="868" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B868" s="5" t="s">
         <v>5</v>
       </c>
@@ -28714,7 +28724,7 @@
       <c r="L868" s="6"/>
       <c r="M868" s="7"/>
     </row>
-    <row r="869" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B869" s="5" t="s">
         <v>5</v>
       </c>
@@ -28742,7 +28752,7 @@
       <c r="L869" s="6"/>
       <c r="M869" s="7"/>
     </row>
-    <row r="870" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B870" s="5" t="s">
         <v>5</v>
       </c>
@@ -28770,7 +28780,7 @@
       <c r="L870" s="6"/>
       <c r="M870" s="7"/>
     </row>
-    <row r="871" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B871" s="5" t="s">
         <v>5</v>
       </c>
@@ -28798,7 +28808,7 @@
       <c r="L871" s="6"/>
       <c r="M871" s="7"/>
     </row>
-    <row r="872" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B872" s="5" t="s">
         <v>5</v>
       </c>
@@ -28826,7 +28836,7 @@
       <c r="L872" s="6"/>
       <c r="M872" s="7"/>
     </row>
-    <row r="873" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B873" s="5" t="s">
         <v>5</v>
       </c>
@@ -28854,7 +28864,7 @@
       <c r="L873" s="6"/>
       <c r="M873" s="7"/>
     </row>
-    <row r="874" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B874" s="5" t="s">
         <v>5</v>
       </c>
@@ -28882,7 +28892,7 @@
       <c r="L874" s="6"/>
       <c r="M874" s="7"/>
     </row>
-    <row r="875" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B875" s="5" t="s">
         <v>2</v>
       </c>
@@ -28910,7 +28920,7 @@
       <c r="L875" s="6"/>
       <c r="M875" s="7"/>
     </row>
-    <row r="876" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B876" s="5" t="s">
         <v>5</v>
       </c>
@@ -28938,7 +28948,7 @@
       <c r="L876" s="6"/>
       <c r="M876" s="7"/>
     </row>
-    <row r="877" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B877" s="5" t="s">
         <v>5</v>
       </c>
@@ -28966,7 +28976,7 @@
       <c r="L877" s="6"/>
       <c r="M877" s="7"/>
     </row>
-    <row r="878" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B878" s="5" t="s">
         <v>2</v>
       </c>
@@ -28994,7 +29004,7 @@
       <c r="L878" s="6"/>
       <c r="M878" s="7"/>
     </row>
-    <row r="879" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B879" s="5" t="s">
         <v>5</v>
       </c>
@@ -29022,7 +29032,7 @@
       <c r="L879" s="6"/>
       <c r="M879" s="7"/>
     </row>
-    <row r="880" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B880" s="5" t="s">
         <v>5</v>
       </c>
@@ -29050,7 +29060,7 @@
       <c r="L880" s="6"/>
       <c r="M880" s="7"/>
     </row>
-    <row r="881" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B881" s="5" t="s">
         <v>5</v>
       </c>
@@ -29078,7 +29088,7 @@
       <c r="L881" s="6"/>
       <c r="M881" s="7"/>
     </row>
-    <row r="882" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B882" s="5" t="s">
         <v>2</v>
       </c>
@@ -29106,7 +29116,7 @@
       <c r="L882" s="6"/>
       <c r="M882" s="7"/>
     </row>
-    <row r="883" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B883" s="5" t="s">
         <v>2</v>
       </c>
@@ -29134,7 +29144,7 @@
       <c r="L883" s="6"/>
       <c r="M883" s="7"/>
     </row>
-    <row r="884" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B884" s="5" t="s">
         <v>5</v>
       </c>
@@ -29162,7 +29172,7 @@
       <c r="L884" s="6"/>
       <c r="M884" s="7"/>
     </row>
-    <row r="885" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B885" s="5" t="s">
         <v>2</v>
       </c>
@@ -29190,7 +29200,7 @@
       <c r="L885" s="6"/>
       <c r="M885" s="7"/>
     </row>
-    <row r="886" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B886" s="5" t="s">
         <v>2</v>
       </c>
@@ -29218,7 +29228,7 @@
       <c r="L886" s="6"/>
       <c r="M886" s="7"/>
     </row>
-    <row r="887" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B887" s="5" t="s">
         <v>5</v>
       </c>
@@ -29246,7 +29256,7 @@
       <c r="L887" s="6"/>
       <c r="M887" s="7"/>
     </row>
-    <row r="888" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B888" s="5" t="s">
         <v>2</v>
       </c>
@@ -29274,7 +29284,7 @@
       <c r="L888" s="6"/>
       <c r="M888" s="7"/>
     </row>
-    <row r="889" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B889" s="5" t="s">
         <v>2</v>
       </c>
@@ -29302,7 +29312,7 @@
       <c r="L889" s="6"/>
       <c r="M889" s="7"/>
     </row>
-    <row r="890" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B890" s="5" t="s">
         <v>2</v>
       </c>
@@ -29330,7 +29340,7 @@
       <c r="L890" s="6"/>
       <c r="M890" s="7"/>
     </row>
-    <row r="891" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B891" s="5" t="s">
         <v>5</v>
       </c>
@@ -29358,7 +29368,7 @@
       <c r="L891" s="6"/>
       <c r="M891" s="7"/>
     </row>
-    <row r="892" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B892" s="5" t="s">
         <v>2</v>
       </c>
@@ -29386,7 +29396,7 @@
       <c r="L892" s="6"/>
       <c r="M892" s="7"/>
     </row>
-    <row r="893" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B893" s="5" t="s">
         <v>5</v>
       </c>
@@ -29414,7 +29424,7 @@
       <c r="L893" s="6"/>
       <c r="M893" s="7"/>
     </row>
-    <row r="894" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B894" s="5" t="s">
         <v>2</v>
       </c>
@@ -29442,7 +29452,7 @@
       <c r="L894" s="6"/>
       <c r="M894" s="7"/>
     </row>
-    <row r="895" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B895" s="5" t="s">
         <v>2</v>
       </c>
@@ -29470,7 +29480,7 @@
       <c r="L895" s="6"/>
       <c r="M895" s="7"/>
     </row>
-    <row r="896" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B896" s="5" t="s">
         <v>2</v>
       </c>
@@ -29498,7 +29508,7 @@
       <c r="L896" s="6"/>
       <c r="M896" s="7"/>
     </row>
-    <row r="897" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B897" s="5" t="s">
         <v>5</v>
       </c>
@@ -29526,7 +29536,7 @@
       <c r="L897" s="6"/>
       <c r="M897" s="7"/>
     </row>
-    <row r="898" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B898" s="5" t="s">
         <v>2</v>
       </c>
@@ -29554,7 +29564,7 @@
       <c r="L898" s="6"/>
       <c r="M898" s="7"/>
     </row>
-    <row r="899" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B899" s="5" t="s">
         <v>2</v>
       </c>
@@ -29582,7 +29592,7 @@
       <c r="L899" s="6"/>
       <c r="M899" s="7"/>
     </row>
-    <row r="900" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B900" s="5" t="s">
         <v>5</v>
       </c>
@@ -29610,7 +29620,7 @@
       <c r="L900" s="6"/>
       <c r="M900" s="7"/>
     </row>
-    <row r="901" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B901" s="5" t="s">
         <v>2</v>
       </c>
@@ -29638,7 +29648,7 @@
       <c r="L901" s="6"/>
       <c r="M901" s="7"/>
     </row>
-    <row r="902" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B902" s="5" t="s">
         <v>5</v>
       </c>
@@ -29666,7 +29676,7 @@
       <c r="L902" s="6"/>
       <c r="M902" s="7"/>
     </row>
-    <row r="903" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B903" s="5" t="s">
         <v>2</v>
       </c>
@@ -29694,7 +29704,7 @@
       <c r="L903" s="6"/>
       <c r="M903" s="7"/>
     </row>
-    <row r="904" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B904" s="5" t="s">
         <v>5</v>
       </c>
@@ -29722,7 +29732,7 @@
       <c r="L904" s="6"/>
       <c r="M904" s="7"/>
     </row>
-    <row r="905" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B905" s="5" t="s">
         <v>2</v>
       </c>
@@ -29750,7 +29760,7 @@
       <c r="L905" s="6"/>
       <c r="M905" s="7"/>
     </row>
-    <row r="906" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B906" s="5" t="s">
         <v>2</v>
       </c>
@@ -29778,7 +29788,7 @@
       <c r="L906" s="6"/>
       <c r="M906" s="7"/>
     </row>
-    <row r="907" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B907" s="5" t="s">
         <v>2</v>
       </c>
@@ -29806,7 +29816,7 @@
       <c r="L907" s="6"/>
       <c r="M907" s="7"/>
     </row>
-    <row r="908" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B908" s="5" t="s">
         <v>2</v>
       </c>
@@ -29834,7 +29844,7 @@
       <c r="L908" s="6"/>
       <c r="M908" s="7"/>
     </row>
-    <row r="909" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B909" s="5" t="s">
         <v>5</v>
       </c>
@@ -29862,7 +29872,7 @@
       <c r="L909" s="6"/>
       <c r="M909" s="7"/>
     </row>
-    <row r="910" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B910" s="5" t="s">
         <v>5</v>
       </c>
@@ -29890,7 +29900,7 @@
       <c r="L910" s="6"/>
       <c r="M910" s="7"/>
     </row>
-    <row r="911" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B911" s="5" t="s">
         <v>2</v>
       </c>
@@ -29918,7 +29928,7 @@
       <c r="L911" s="6"/>
       <c r="M911" s="7"/>
     </row>
-    <row r="912" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B912" s="5" t="s">
         <v>2</v>
       </c>
@@ -29946,7 +29956,7 @@
       <c r="L912" s="6"/>
       <c r="M912" s="7"/>
     </row>
-    <row r="913" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B913" s="5" t="s">
         <v>5</v>
       </c>
@@ -29974,7 +29984,7 @@
       <c r="L913" s="6"/>
       <c r="M913" s="7"/>
     </row>
-    <row r="914" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B914" s="5" t="s">
         <v>5</v>
       </c>
@@ -30002,7 +30012,7 @@
       <c r="L914" s="6"/>
       <c r="M914" s="7"/>
     </row>
-    <row r="915" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B915" s="5" t="s">
         <v>2</v>
       </c>
@@ -30030,7 +30040,7 @@
       <c r="L915" s="6"/>
       <c r="M915" s="7"/>
     </row>
-    <row r="916" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B916" s="5" t="s">
         <v>2</v>
       </c>
@@ -30058,7 +30068,7 @@
       <c r="L916" s="6"/>
       <c r="M916" s="7"/>
     </row>
-    <row r="917" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B917" s="5" t="s">
         <v>2</v>
       </c>
@@ -30086,7 +30096,7 @@
       <c r="L917" s="6"/>
       <c r="M917" s="7"/>
     </row>
-    <row r="918" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B918" s="5" t="s">
         <v>2</v>
       </c>
@@ -30114,7 +30124,7 @@
       <c r="L918" s="6"/>
       <c r="M918" s="7"/>
     </row>
-    <row r="919" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B919" s="5" t="s">
         <v>2</v>
       </c>
@@ -30142,7 +30152,7 @@
       <c r="L919" s="6"/>
       <c r="M919" s="7"/>
     </row>
-    <row r="920" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B920" s="5" t="s">
         <v>5</v>
       </c>
@@ -30170,7 +30180,7 @@
       <c r="L920" s="6"/>
       <c r="M920" s="7"/>
     </row>
-    <row r="921" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B921" s="5" t="s">
         <v>2</v>
       </c>
@@ -30198,7 +30208,7 @@
       <c r="L921" s="6"/>
       <c r="M921" s="7"/>
     </row>
-    <row r="922" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B922" s="5" t="s">
         <v>2</v>
       </c>
@@ -30226,7 +30236,7 @@
       <c r="L922" s="6"/>
       <c r="M922" s="7"/>
     </row>
-    <row r="923" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B923" s="5" t="s">
         <v>5</v>
       </c>
@@ -30254,7 +30264,7 @@
       <c r="L923" s="6"/>
       <c r="M923" s="7"/>
     </row>
-    <row r="924" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B924" s="5" t="s">
         <v>5</v>
       </c>
@@ -30282,7 +30292,7 @@
       <c r="L924" s="6"/>
       <c r="M924" s="7"/>
     </row>
-    <row r="925" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B925" s="5" t="s">
         <v>2</v>
       </c>
@@ -30310,7 +30320,7 @@
       <c r="L925" s="6"/>
       <c r="M925" s="7"/>
     </row>
-    <row r="926" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B926" s="5" t="s">
         <v>5</v>
       </c>
@@ -30338,7 +30348,7 @@
       <c r="L926" s="6"/>
       <c r="M926" s="7"/>
     </row>
-    <row r="927" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B927" s="5" t="s">
         <v>2</v>
       </c>
@@ -30366,7 +30376,7 @@
       <c r="L927" s="6"/>
       <c r="M927" s="7"/>
     </row>
-    <row r="928" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B928" s="5" t="s">
         <v>5</v>
       </c>
@@ -30394,7 +30404,7 @@
       <c r="L928" s="6"/>
       <c r="M928" s="7"/>
     </row>
-    <row r="929" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B929" s="5" t="s">
         <v>5</v>
       </c>
@@ -30422,7 +30432,7 @@
       <c r="L929" s="6"/>
       <c r="M929" s="7"/>
     </row>
-    <row r="930" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B930" s="5" t="s">
         <v>5</v>
       </c>
@@ -30450,7 +30460,7 @@
       <c r="L930" s="6"/>
       <c r="M930" s="7"/>
     </row>
-    <row r="931" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B931" s="5" t="s">
         <v>2</v>
       </c>
@@ -30478,7 +30488,7 @@
       <c r="L931" s="6"/>
       <c r="M931" s="7"/>
     </row>
-    <row r="932" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B932" s="5" t="s">
         <v>5</v>
       </c>
@@ -30506,7 +30516,7 @@
       <c r="L932" s="6"/>
       <c r="M932" s="7"/>
     </row>
-    <row r="933" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B933" s="5" t="s">
         <v>2</v>
       </c>
@@ -30534,7 +30544,7 @@
       <c r="L933" s="6"/>
       <c r="M933" s="7"/>
     </row>
-    <row r="934" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B934" s="5" t="s">
         <v>5</v>
       </c>
@@ -30562,7 +30572,7 @@
       <c r="L934" s="6"/>
       <c r="M934" s="7"/>
     </row>
-    <row r="935" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B935" s="5" t="s">
         <v>5</v>
       </c>
@@ -30590,7 +30600,7 @@
       <c r="L935" s="6"/>
       <c r="M935" s="7"/>
     </row>
-    <row r="936" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B936" s="5" t="s">
         <v>5</v>
       </c>
@@ -30618,7 +30628,7 @@
       <c r="L936" s="6"/>
       <c r="M936" s="7"/>
     </row>
-    <row r="937" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B937" s="5" t="s">
         <v>5</v>
       </c>
@@ -30646,7 +30656,7 @@
       <c r="L937" s="6"/>
       <c r="M937" s="7"/>
     </row>
-    <row r="938" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B938" s="5" t="s">
         <v>5</v>
       </c>
@@ -30674,7 +30684,7 @@
       <c r="L938" s="6"/>
       <c r="M938" s="7"/>
     </row>
-    <row r="939" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B939" s="5" t="s">
         <v>5</v>
       </c>
@@ -30702,7 +30712,7 @@
       <c r="L939" s="6"/>
       <c r="M939" s="7"/>
     </row>
-    <row r="940" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B940" s="5" t="s">
         <v>5</v>
       </c>
@@ -30730,7 +30740,7 @@
       <c r="L940" s="6"/>
       <c r="M940" s="7"/>
     </row>
-    <row r="941" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B941" s="5" t="s">
         <v>2</v>
       </c>
@@ -30758,7 +30768,7 @@
       <c r="L941" s="6"/>
       <c r="M941" s="7"/>
     </row>
-    <row r="942" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B942" s="5" t="s">
         <v>5</v>
       </c>
@@ -30786,7 +30796,7 @@
       <c r="L942" s="6"/>
       <c r="M942" s="7"/>
     </row>
-    <row r="943" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B943" s="5" t="s">
         <v>5</v>
       </c>
@@ -30814,7 +30824,7 @@
       <c r="L943" s="6"/>
       <c r="M943" s="7"/>
     </row>
-    <row r="944" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B944" s="5" t="s">
         <v>5</v>
       </c>
@@ -30842,7 +30852,7 @@
       <c r="L944" s="6"/>
       <c r="M944" s="7"/>
     </row>
-    <row r="945" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B945" s="5" t="s">
         <v>2</v>
       </c>
@@ -30870,7 +30880,7 @@
       <c r="L945" s="6"/>
       <c r="M945" s="7"/>
     </row>
-    <row r="946" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B946" s="5" t="s">
         <v>5</v>
       </c>
@@ -30898,7 +30908,7 @@
       <c r="L946" s="6"/>
       <c r="M946" s="7"/>
     </row>
-    <row r="947" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B947" s="5" t="s">
         <v>5</v>
       </c>
@@ -30926,7 +30936,7 @@
       <c r="L947" s="6"/>
       <c r="M947" s="7"/>
     </row>
-    <row r="948" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B948" s="5" t="s">
         <v>2</v>
       </c>
@@ -30954,7 +30964,7 @@
       <c r="L948" s="6"/>
       <c r="M948" s="7"/>
     </row>
-    <row r="949" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B949" s="5" t="s">
         <v>2</v>
       </c>
@@ -30982,7 +30992,7 @@
       <c r="L949" s="6"/>
       <c r="M949" s="7"/>
     </row>
-    <row r="950" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B950" s="5" t="s">
         <v>5</v>
       </c>
@@ -31010,7 +31020,7 @@
       <c r="L950" s="6"/>
       <c r="M950" s="7"/>
     </row>
-    <row r="951" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B951" s="5" t="s">
         <v>2</v>
       </c>
@@ -31038,7 +31048,7 @@
       <c r="L951" s="6"/>
       <c r="M951" s="7"/>
     </row>
-    <row r="952" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B952" s="5" t="s">
         <v>5</v>
       </c>
@@ -31066,7 +31076,7 @@
       <c r="L952" s="6"/>
       <c r="M952" s="7"/>
     </row>
-    <row r="953" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B953" s="5" t="s">
         <v>2</v>
       </c>
@@ -31094,7 +31104,7 @@
       <c r="L953" s="6"/>
       <c r="M953" s="7"/>
     </row>
-    <row r="954" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B954" s="5" t="s">
         <v>5</v>
       </c>
@@ -31122,7 +31132,7 @@
       <c r="L954" s="6"/>
       <c r="M954" s="7"/>
     </row>
-    <row r="955" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B955" s="5" t="s">
         <v>2</v>
       </c>
@@ -31150,7 +31160,7 @@
       <c r="L955" s="6"/>
       <c r="M955" s="7"/>
     </row>
-    <row r="956" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B956" s="5" t="s">
         <v>2</v>
       </c>
@@ -31178,7 +31188,7 @@
       <c r="L956" s="6"/>
       <c r="M956" s="7"/>
     </row>
-    <row r="957" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B957" s="5" t="s">
         <v>5</v>
       </c>
@@ -31206,7 +31216,7 @@
       <c r="L957" s="6"/>
       <c r="M957" s="7"/>
     </row>
-    <row r="958" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B958" s="5" t="s">
         <v>2</v>
       </c>
@@ -31234,7 +31244,7 @@
       <c r="L958" s="6"/>
       <c r="M958" s="7"/>
     </row>
-    <row r="959" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B959" s="5" t="s">
         <v>5</v>
       </c>
@@ -31262,7 +31272,7 @@
       <c r="L959" s="6"/>
       <c r="M959" s="7"/>
     </row>
-    <row r="960" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B960" s="5" t="s">
         <v>5</v>
       </c>
@@ -31290,7 +31300,7 @@
       <c r="L960" s="6"/>
       <c r="M960" s="7"/>
     </row>
-    <row r="961" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B961" s="5" t="s">
         <v>2</v>
       </c>
@@ -31318,7 +31328,7 @@
       <c r="L961" s="6"/>
       <c r="M961" s="7"/>
     </row>
-    <row r="962" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B962" s="5" t="s">
         <v>2</v>
       </c>
@@ -31346,7 +31356,7 @@
       <c r="L962" s="6"/>
       <c r="M962" s="7"/>
     </row>
-    <row r="963" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B963" s="5" t="s">
         <v>5</v>
       </c>
@@ -31374,7 +31384,7 @@
       <c r="L963" s="6"/>
       <c r="M963" s="7"/>
     </row>
-    <row r="964" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B964" s="5" t="s">
         <v>2</v>
       </c>
@@ -31402,7 +31412,7 @@
       <c r="L964" s="6"/>
       <c r="M964" s="7"/>
     </row>
-    <row r="965" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B965" s="5" t="s">
         <v>2</v>
       </c>
@@ -31430,7 +31440,7 @@
       <c r="L965" s="6"/>
       <c r="M965" s="7"/>
     </row>
-    <row r="966" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B966" s="5" t="s">
         <v>2</v>
       </c>
@@ -31458,7 +31468,7 @@
       <c r="L966" s="6"/>
       <c r="M966" s="7"/>
     </row>
-    <row r="967" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B967" s="5" t="s">
         <v>2</v>
       </c>
@@ -31486,7 +31496,7 @@
       <c r="L967" s="6"/>
       <c r="M967" s="7"/>
     </row>
-    <row r="968" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B968" s="5" t="s">
         <v>5</v>
       </c>
@@ -31514,7 +31524,7 @@
       <c r="L968" s="6"/>
       <c r="M968" s="7"/>
     </row>
-    <row r="969" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B969" s="5" t="s">
         <v>2</v>
       </c>
@@ -31542,7 +31552,7 @@
       <c r="L969" s="6"/>
       <c r="M969" s="7"/>
     </row>
-    <row r="970" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B970" s="5" t="s">
         <v>5</v>
       </c>
@@ -31570,7 +31580,7 @@
       <c r="L970" s="6"/>
       <c r="M970" s="7"/>
     </row>
-    <row r="971" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B971" s="5" t="s">
         <v>5</v>
       </c>
@@ -31598,7 +31608,7 @@
       <c r="L971" s="6"/>
       <c r="M971" s="7"/>
     </row>
-    <row r="972" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B972" s="5" t="s">
         <v>2</v>
       </c>
@@ -31626,7 +31636,7 @@
       <c r="L972" s="6"/>
       <c r="M972" s="7"/>
     </row>
-    <row r="973" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B973" s="5" t="s">
         <v>2</v>
       </c>
@@ -31654,7 +31664,7 @@
       <c r="L973" s="6"/>
       <c r="M973" s="7"/>
     </row>
-    <row r="974" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B974" s="5" t="s">
         <v>2</v>
       </c>
@@ -31682,7 +31692,7 @@
       <c r="L974" s="6"/>
       <c r="M974" s="7"/>
     </row>
-    <row r="975" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B975" s="5" t="s">
         <v>5</v>
       </c>
@@ -31710,7 +31720,7 @@
       <c r="L975" s="6"/>
       <c r="M975" s="7"/>
     </row>
-    <row r="976" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B976" s="5" t="s">
         <v>2</v>
       </c>
@@ -31738,7 +31748,7 @@
       <c r="L976" s="6"/>
       <c r="M976" s="7"/>
     </row>
-    <row r="977" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B977" s="5" t="s">
         <v>2</v>
       </c>
@@ -31766,7 +31776,7 @@
       <c r="L977" s="6"/>
       <c r="M977" s="7"/>
     </row>
-    <row r="978" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B978" s="5" t="s">
         <v>2</v>
       </c>
@@ -31794,7 +31804,7 @@
       <c r="L978" s="6"/>
       <c r="M978" s="7"/>
     </row>
-    <row r="979" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B979" s="5" t="s">
         <v>2</v>
       </c>
@@ -31822,7 +31832,7 @@
       <c r="L979" s="6"/>
       <c r="M979" s="7"/>
     </row>
-    <row r="980" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B980" s="5" t="s">
         <v>5</v>
       </c>
@@ -31850,7 +31860,7 @@
       <c r="L980" s="6"/>
       <c r="M980" s="7"/>
     </row>
-    <row r="981" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B981" s="5" t="s">
         <v>5</v>
       </c>
@@ -31878,7 +31888,7 @@
       <c r="L981" s="6"/>
       <c r="M981" s="7"/>
     </row>
-    <row r="982" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B982" s="5" t="s">
         <v>5</v>
       </c>
@@ -31906,7 +31916,7 @@
       <c r="L982" s="6"/>
       <c r="M982" s="7"/>
     </row>
-    <row r="983" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B983" s="5" t="s">
         <v>2</v>
       </c>
@@ -31934,7 +31944,7 @@
       <c r="L983" s="6"/>
       <c r="M983" s="7"/>
     </row>
-    <row r="984" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B984" s="5" t="s">
         <v>2</v>
       </c>
@@ -31962,7 +31972,7 @@
       <c r="L984" s="6"/>
       <c r="M984" s="7"/>
     </row>
-    <row r="985" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B985" s="5" t="s">
         <v>5</v>
       </c>
@@ -31990,7 +32000,7 @@
       <c r="L985" s="6"/>
       <c r="M985" s="7"/>
     </row>
-    <row r="986" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B986" s="5" t="s">
         <v>5</v>
       </c>
@@ -32018,7 +32028,7 @@
       <c r="L986" s="6"/>
       <c r="M986" s="7"/>
     </row>
-    <row r="987" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B987" s="5" t="s">
         <v>2</v>
       </c>
@@ -32046,7 +32056,7 @@
       <c r="L987" s="6"/>
       <c r="M987" s="7"/>
     </row>
-    <row r="988" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B988" s="5" t="s">
         <v>2</v>
       </c>
@@ -32074,7 +32084,7 @@
       <c r="L988" s="6"/>
       <c r="M988" s="7"/>
     </row>
-    <row r="989" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B989" s="5" t="s">
         <v>5</v>
       </c>
@@ -32102,7 +32112,7 @@
       <c r="L989" s="6"/>
       <c r="M989" s="7"/>
     </row>
-    <row r="990" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B990" s="5" t="s">
         <v>2</v>
       </c>
@@ -32130,7 +32140,7 @@
       <c r="L990" s="6"/>
       <c r="M990" s="7"/>
     </row>
-    <row r="991" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B991" s="5" t="s">
         <v>5</v>
       </c>
@@ -32158,7 +32168,7 @@
       <c r="L991" s="6"/>
       <c r="M991" s="7"/>
     </row>
-    <row r="992" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B992" s="5" t="s">
         <v>2</v>
       </c>
@@ -32186,7 +32196,7 @@
       <c r="L992" s="6"/>
       <c r="M992" s="7"/>
     </row>
-    <row r="993" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B993" s="5" t="s">
         <v>2</v>
       </c>
@@ -32214,7 +32224,7 @@
       <c r="L993" s="6"/>
       <c r="M993" s="7"/>
     </row>
-    <row r="994" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B994" s="5" t="s">
         <v>5</v>
       </c>
@@ -32242,7 +32252,7 @@
       <c r="L994" s="6"/>
       <c r="M994" s="7"/>
     </row>
-    <row r="995" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B995" s="5" t="s">
         <v>2</v>
       </c>
@@ -32270,7 +32280,7 @@
       <c r="L995" s="6"/>
       <c r="M995" s="7"/>
     </row>
-    <row r="996" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B996" s="5" t="s">
         <v>2</v>
       </c>
@@ -32298,7 +32308,7 @@
       <c r="L996" s="6"/>
       <c r="M996" s="7"/>
     </row>
-    <row r="997" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B997" s="5" t="s">
         <v>2</v>
       </c>
@@ -32326,7 +32336,7 @@
       <c r="L997" s="6"/>
       <c r="M997" s="7"/>
     </row>
-    <row r="998" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B998" s="5" t="s">
         <v>5</v>
       </c>
@@ -32354,7 +32364,7 @@
       <c r="L998" s="6"/>
       <c r="M998" s="7"/>
     </row>
-    <row r="999" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B999" s="5" t="s">
         <v>2</v>
       </c>
@@ -32382,7 +32392,7 @@
       <c r="L999" s="6"/>
       <c r="M999" s="7"/>
     </row>
-    <row r="1000" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1000" s="5" t="s">
         <v>5</v>
       </c>
@@ -32410,7 +32420,7 @@
       <c r="L1000" s="6"/>
       <c r="M1000" s="7"/>
     </row>
-    <row r="1001" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1001" s="5" t="s">
         <v>2</v>
       </c>
@@ -32438,7 +32448,7 @@
       <c r="L1001" s="6"/>
       <c r="M1001" s="7"/>
     </row>
-    <row r="1002" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1002" s="5" t="s">
         <v>2</v>
       </c>
@@ -32466,7 +32476,7 @@
       <c r="L1002" s="6"/>
       <c r="M1002" s="7"/>
     </row>
-    <row r="1003" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1003" s="8" t="s">
         <v>2</v>
       </c>

--- a/Excel/Other/Session2_Exercise.xlsx
+++ b/Excel/Other/Session2_Exercise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05CF59-3F88-4CAF-B4F7-BA4EA8E0E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C1236-C435-47B3-811D-8E43B4DA93D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="1" r:id="rId1"/>
@@ -4312,7 +4312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4447,7 +4447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
